--- a/data/accumulative_metrics_aggregated.xlsx
+++ b/data/accumulative_metrics_aggregated.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA51"/>
+  <dimension ref="A1:AA50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,57 +518,57 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>total_score</t>
+          <t>GatesS_score</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>coldread_stopwatch_wpm</t>
+          <t>GatesS_coldread_stopwatch_wpm</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>coldread_coverage_line_%</t>
+          <t>GatesS_coldread_coverage_line_%</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>coldread_dwell_time_pdf</t>
+          <t>GatesS_coldread_dwell_time_pdf</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>coldread_fix_dispersion_mean</t>
+          <t>GatesS_coldread_fix_dispersion_mean</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>coldread_saccade_regression_rate_%</t>
+          <t>GatesS_coldread_saccade_regression_rate_%</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>qa_dwell_time_quiz</t>
+          <t>GatesS_qa_dwell_time_quiz</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>qa_dwell_time_pdf</t>
+          <t>GatesS_qa_dwell_time_pdf</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>qa_coverage_line_%</t>
+          <t>GatesS_qa_coverage_line_%</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>qa_fix_dispersion_mean</t>
+          <t>GatesS_qa_fix_dispersion_mean</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>qa_saccade_regression_rate_%</t>
+          <t>GatesS_qa_saccade_regression_rate_%</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="R2" t="n">
         <v>161.4225473367846</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>7</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="R3" t="n">
         <v>200.8195939125012</v>
@@ -788,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>9</v>
+        <v>0.6</v>
       </c>
       <c r="R4" t="n">
         <v>1732.13141366308</v>
@@ -871,7 +871,7 @@
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>9</v>
+        <v>0.6</v>
       </c>
       <c r="R5" t="n">
         <v>195.9010727162558</v>
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>13</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="R6" t="n">
         <v>230.9704119049853</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>11</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="R7" t="n">
         <v>150.6655062657399</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R8" t="n">
         <v>78.66525276624803</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>4</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="R9" t="n">
         <v>220.1464052516301</v>
@@ -1286,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>4</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="R10" t="n">
         <v>108.2465071856666</v>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="R11" t="n">
         <v>154.4902830812084</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>10</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R12" t="n">
         <v>208.2899087380993</v>
@@ -1535,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="R13" t="n">
         <v>126.5362655548764</v>
@@ -1618,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>13</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="R14" t="n">
         <v>127.4159472462079</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6</v>
+        <v>0.4</v>
       </c>
       <c r="R15" t="n">
         <v>95.25964602421892</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>10</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R16" t="n">
         <v>107.9013802005087</v>
@@ -1867,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R17" t="n">
         <v>117.8028816213944</v>
@@ -1950,7 +1950,7 @@
         <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="R18" t="n">
         <v>282.9406415632965</v>
@@ -2033,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>9</v>
+        <v>0.6</v>
       </c>
       <c r="R19" t="n">
         <v>101.2610369324589</v>
@@ -2116,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>13</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="R20" t="n">
         <v>159.2049057083986</v>
@@ -2199,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>10</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R21" t="n">
         <v>135.1991606742248</v>
@@ -2282,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>7</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="R22" t="n">
         <v>71.06256960382449</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R23" t="n">
         <v>113.2214394695388</v>
@@ -2448,7 +2448,7 @@
         <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>9</v>
+        <v>0.6</v>
       </c>
       <c r="R24" t="n">
         <v>76.92536981607121</v>
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>9</v>
+        <v>0.6</v>
       </c>
       <c r="R25" t="n">
         <v>255.3338545235948</v>
@@ -2614,7 +2614,7 @@
         <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R26" t="n">
         <v>92.62187786844795</v>
@@ -2697,7 +2697,7 @@
         <v>1</v>
       </c>
       <c r="Q27" t="n">
-        <v>13</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="R27" t="n">
         <v>118.7677833212591</v>
@@ -2780,7 +2780,7 @@
         <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>10</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R28" t="n">
         <v>212.8726044686339</v>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>7</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="R29" t="n">
         <v>179.8902745590129</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>9</v>
+        <v>0.6</v>
       </c>
       <c r="R30" t="n">
         <v>95.60560859564646</v>
@@ -3029,7 +3029,7 @@
         <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>10</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R31" t="n">
         <v>146.2913690967316</v>
@@ -3112,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>10</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R32" t="n">
         <v>398.6376667465486</v>
@@ -3195,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>13</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="R33" t="n">
         <v>233.8725312644737</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>10</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R34" t="n">
         <v>152.1084425080309</v>
@@ -3361,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>11</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="R35" t="n">
         <v>70.43741337502868</v>
@@ -3444,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>9</v>
+        <v>0.6</v>
       </c>
       <c r="R36" t="n">
         <v>228.4210638035456</v>
@@ -3527,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>10</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R37" t="n">
         <v>184.1415663305447</v>
@@ -3610,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9</v>
+        <v>0.6</v>
       </c>
       <c r="R38" t="n">
         <v>155.6367878106364</v>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="R39" t="n">
         <v>193.7417144904911</v>
@@ -3776,7 +3776,7 @@
         <v>1</v>
       </c>
       <c r="Q40" t="n">
-        <v>9</v>
+        <v>0.6</v>
       </c>
       <c r="R40" t="n">
         <v>78.31506855412293</v>
@@ -3859,7 +3859,7 @@
         <v>1</v>
       </c>
       <c r="Q41" t="n">
-        <v>8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="R41" t="n">
         <v>243.3667536473938</v>
@@ -3894,110 +3894,108 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>7</v>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="R42" t="n">
+        <v>129.1366552987812</v>
       </c>
       <c r="S42" t="n">
-        <v>41.66666666666666</v>
+        <v>81.41000000000001</v>
       </c>
       <c r="T42" t="n">
-        <v>16.82333333333333</v>
+        <v>37.09333333333333</v>
       </c>
       <c r="U42" t="n">
-        <v>2.26</v>
+        <v>3.55</v>
       </c>
       <c r="V42" t="n">
-        <v>8.896666666666667</v>
+        <v>20.87</v>
       </c>
       <c r="W42" t="n">
-        <v>59.46666666666666</v>
+        <v>87.2</v>
       </c>
       <c r="X42" t="n">
-        <v>24.05</v>
+        <v>50.46</v>
       </c>
       <c r="Y42" t="n">
-        <v>70.08333333333333</v>
+        <v>78.63</v>
       </c>
       <c r="Z42" t="n">
-        <v>3.136666666666667</v>
+        <v>3.283333333333333</v>
       </c>
       <c r="AA42" t="n">
-        <v>9.893333333333333</v>
+        <v>14.18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
@@ -4006,84 +4004,84 @@
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" t="n">
-        <v>10</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="R43" t="n">
-        <v>129.1366552987812</v>
+        <v>171.6373026511451</v>
       </c>
       <c r="S43" t="n">
-        <v>81.41000000000001</v>
+        <v>75.42666666666666</v>
       </c>
       <c r="T43" t="n">
-        <v>37.09333333333333</v>
+        <v>20.71333333333333</v>
       </c>
       <c r="U43" t="n">
-        <v>3.55</v>
+        <v>2.933333333333333</v>
       </c>
       <c r="V43" t="n">
-        <v>20.87</v>
+        <v>19.41333333333333</v>
       </c>
       <c r="W43" t="n">
-        <v>87.2</v>
+        <v>49.80333333333333</v>
       </c>
       <c r="X43" t="n">
-        <v>50.46</v>
+        <v>28.74</v>
       </c>
       <c r="Y43" t="n">
-        <v>78.63</v>
+        <v>43.16</v>
       </c>
       <c r="Z43" t="n">
-        <v>3.283333333333333</v>
+        <v>1.343333333333333</v>
       </c>
       <c r="AA43" t="n">
-        <v>14.18</v>
+        <v>5.553333333333334</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -4098,10 +4096,10 @@
         <v>1</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -4110,72 +4108,72 @@
         <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>8</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="R44" t="n">
-        <v>171.6373026511451</v>
+        <v>114.4400744596022</v>
       </c>
       <c r="S44" t="n">
-        <v>75.42666666666666</v>
+        <v>86.54000000000001</v>
       </c>
       <c r="T44" t="n">
-        <v>20.71333333333333</v>
+        <v>41.13</v>
       </c>
       <c r="U44" t="n">
-        <v>2.933333333333333</v>
+        <v>3.37</v>
       </c>
       <c r="V44" t="n">
-        <v>19.41333333333333</v>
+        <v>23.51666666666667</v>
       </c>
       <c r="W44" t="n">
-        <v>49.80333333333333</v>
+        <v>41.72333333333334</v>
       </c>
       <c r="X44" t="n">
-        <v>28.74</v>
+        <v>13.53666666666667</v>
       </c>
       <c r="Y44" t="n">
-        <v>43.16</v>
+        <v>65.17333333333333</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.343333333333333</v>
+        <v>3.496666666666667</v>
       </c>
       <c r="AA44" t="n">
-        <v>5.553333333333334</v>
+        <v>6.436666666666667</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>1</v>
@@ -4187,48 +4185,48 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="n">
         <v>1</v>
       </c>
       <c r="Q45" t="n">
-        <v>7</v>
+        <v>0.6</v>
       </c>
       <c r="R45" t="n">
-        <v>114.4400744596022</v>
+        <v>76.62784007817504</v>
       </c>
       <c r="S45" t="n">
-        <v>86.54000000000001</v>
+        <v>89.32000000000001</v>
       </c>
       <c r="T45" t="n">
-        <v>41.13</v>
+        <v>75.20666666666666</v>
       </c>
       <c r="U45" t="n">
-        <v>3.37</v>
+        <v>3.203333333333333</v>
       </c>
       <c r="V45" t="n">
-        <v>23.51666666666667</v>
+        <v>22.21666666666667</v>
       </c>
       <c r="W45" t="n">
-        <v>41.72333333333334</v>
+        <v>103.6733333333333</v>
       </c>
       <c r="X45" t="n">
-        <v>13.53666666666667</v>
+        <v>57.23333333333334</v>
       </c>
       <c r="Y45" t="n">
-        <v>65.17333333333333</v>
+        <v>54.48666666666667</v>
       </c>
       <c r="Z45" t="n">
-        <v>3.496666666666667</v>
+        <v>3.116666666666667</v>
       </c>
       <c r="AA45" t="n">
-        <v>6.436666666666667</v>
+        <v>9.916666666666666</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
@@ -4246,7 +4244,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4264,7 +4262,7 @@
         <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -4276,57 +4274,57 @@
         <v>1</v>
       </c>
       <c r="Q46" t="n">
-        <v>9</v>
+        <v>0.6</v>
       </c>
       <c r="R46" t="n">
-        <v>76.62784007817504</v>
+        <v>169.8781111790316</v>
       </c>
       <c r="S46" t="n">
-        <v>89.32000000000001</v>
+        <v>86.54000000000001</v>
       </c>
       <c r="T46" t="n">
-        <v>75.20666666666666</v>
+        <v>31.52</v>
       </c>
       <c r="U46" t="n">
-        <v>3.203333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="V46" t="n">
-        <v>22.21666666666667</v>
+        <v>24.16333333333334</v>
       </c>
       <c r="W46" t="n">
-        <v>103.6733333333333</v>
+        <v>37.22666666666667</v>
       </c>
       <c r="X46" t="n">
-        <v>57.23333333333334</v>
+        <v>5.183333333333334</v>
       </c>
       <c r="Y46" t="n">
-        <v>54.48666666666667</v>
+        <v>21.58333333333333</v>
       </c>
       <c r="Z46" t="n">
-        <v>3.116666666666667</v>
+        <v>0.8366666666666668</v>
       </c>
       <c r="AA46" t="n">
-        <v>9.916666666666666</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -4338,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -4347,7 +4345,7 @@
         <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -4356,72 +4354,72 @@
         <v>1</v>
       </c>
       <c r="P47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>9</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R47" t="n">
-        <v>169.8781111790316</v>
+        <v>268.290334995816</v>
       </c>
       <c r="S47" t="n">
-        <v>86.54000000000001</v>
+        <v>86.32666666666667</v>
       </c>
       <c r="T47" t="n">
-        <v>31.52</v>
+        <v>15.60333333333333</v>
       </c>
       <c r="U47" t="n">
-        <v>2.333333333333333</v>
+        <v>3.8</v>
       </c>
       <c r="V47" t="n">
-        <v>24.16333333333334</v>
+        <v>19.88</v>
       </c>
       <c r="W47" t="n">
-        <v>37.22666666666667</v>
+        <v>31.57</v>
       </c>
       <c r="X47" t="n">
-        <v>5.183333333333334</v>
+        <v>18.54666666666667</v>
       </c>
       <c r="Y47" t="n">
-        <v>21.58333333333333</v>
+        <v>32.48</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.8366666666666668</v>
+        <v>2.303333333333333</v>
       </c>
       <c r="AA47" t="n">
-        <v>2.5</v>
+        <v>4.776666666666666</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>218</v>
+        <v>130</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -4430,54 +4428,54 @@
         <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" t="n">
-        <v>5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R48" t="n">
-        <v>268.290334995816</v>
+        <v>2086.40376782129</v>
       </c>
       <c r="S48" t="n">
-        <v>86.32666666666667</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="T48" t="n">
-        <v>15.60333333333333</v>
+        <v>0.9933333333333333</v>
       </c>
       <c r="U48" t="n">
-        <v>3.8</v>
+        <v>2.013333333333333</v>
       </c>
       <c r="V48" t="n">
-        <v>19.88</v>
+        <v>7.936666666666667</v>
       </c>
       <c r="W48" t="n">
-        <v>31.57</v>
+        <v>24.58333333333333</v>
       </c>
       <c r="X48" t="n">
-        <v>18.54666666666667</v>
+        <v>34.76333333333334</v>
       </c>
       <c r="Y48" t="n">
-        <v>32.48</v>
+        <v>86.75333333333333</v>
       </c>
       <c r="Z48" t="n">
-        <v>2.303333333333333</v>
+        <v>2.423333333333333</v>
       </c>
       <c r="AA48" t="n">
-        <v>4.776666666666666</v>
+        <v>18.88333333333334</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -4492,22 +4490,22 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" t="n">
         <v>1</v>
@@ -4516,51 +4514,51 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="n">
         <v>1</v>
       </c>
       <c r="Q49" t="n">
-        <v>10</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R49" t="n">
-        <v>2086.40376782129</v>
+        <v>226.5371191306247</v>
       </c>
       <c r="S49" t="n">
-        <v>16.66666666666667</v>
+        <v>73.50666666666667</v>
       </c>
       <c r="T49" t="n">
-        <v>0.9933333333333333</v>
+        <v>25.75</v>
       </c>
       <c r="U49" t="n">
-        <v>2.013333333333333</v>
+        <v>3.363333333333333</v>
       </c>
       <c r="V49" t="n">
-        <v>7.936666666666667</v>
+        <v>28.48666666666667</v>
       </c>
       <c r="W49" t="n">
-        <v>24.58333333333333</v>
+        <v>46.66333333333333</v>
       </c>
       <c r="X49" t="n">
-        <v>34.76333333333334</v>
+        <v>21.61666666666666</v>
       </c>
       <c r="Y49" t="n">
-        <v>86.75333333333333</v>
+        <v>50</v>
       </c>
       <c r="Z49" t="n">
-        <v>2.423333333333333</v>
+        <v>2.21</v>
       </c>
       <c r="AA49" t="n">
-        <v>18.88333333333334</v>
+        <v>9.220000000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -4569,158 +4567,75 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
       </c>
       <c r="Q50" t="n">
-        <v>10</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R50" t="n">
-        <v>226.5371191306247</v>
+        <v>119.9932111900186</v>
       </c>
       <c r="S50" t="n">
-        <v>73.50666666666667</v>
+        <v>75.43000000000001</v>
       </c>
       <c r="T50" t="n">
-        <v>25.75</v>
+        <v>46.69666666666667</v>
       </c>
       <c r="U50" t="n">
-        <v>3.363333333333333</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="V50" t="n">
-        <v>28.48666666666667</v>
+        <v>21.48</v>
       </c>
       <c r="W50" t="n">
-        <v>46.66333333333333</v>
+        <v>78.55333333333333</v>
       </c>
       <c r="X50" t="n">
-        <v>21.61666666666666</v>
+        <v>62.32333333333333</v>
       </c>
       <c r="Y50" t="n">
-        <v>50</v>
+        <v>62.82</v>
       </c>
       <c r="Z50" t="n">
-        <v>2.21</v>
+        <v>2.716666666666667</v>
       </c>
       <c r="AA50" t="n">
-        <v>9.220000000000001</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>178</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="n">
-        <v>1</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>10</v>
-      </c>
-      <c r="R51" t="n">
-        <v>119.9932111900186</v>
-      </c>
-      <c r="S51" t="n">
-        <v>75.43000000000001</v>
-      </c>
-      <c r="T51" t="n">
-        <v>46.69666666666667</v>
-      </c>
-      <c r="U51" t="n">
-        <v>3.083333333333333</v>
-      </c>
-      <c r="V51" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="W51" t="n">
-        <v>78.55333333333333</v>
-      </c>
-      <c r="X51" t="n">
-        <v>62.32333333333333</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>62.82</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>2.716666666666667</v>
-      </c>
-      <c r="AA51" t="n">
         <v>7.156666666666666</v>
       </c>
     </row>
@@ -4826,57 +4741,57 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>total_score</t>
+          <t>GatesT_score</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>coldread_stopwatch_wpm</t>
+          <t>GatesT_coldread_stopwatch_wpm</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>coldread_coverage_line_%</t>
+          <t>GatesT_coldread_coverage_line_%</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>coldread_dwell_time_pdf</t>
+          <t>GatesT_coldread_dwell_time_pdf</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>coldread_fix_dispersion_mean</t>
+          <t>GatesT_coldread_fix_dispersion_mean</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>coldread_saccade_regression_rate_%</t>
+          <t>GatesT_coldread_saccade_regression_rate_%</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>qa_dwell_time_quiz</t>
+          <t>GatesT_qa_dwell_time_quiz</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>qa_dwell_time_pdf</t>
+          <t>GatesT_qa_dwell_time_pdf</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>qa_coverage_line_%</t>
+          <t>GatesT_qa_coverage_line_%</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>qa_fix_dispersion_mean</t>
+          <t>GatesT_qa_fix_dispersion_mean</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>qa_saccade_regression_rate_%</t>
+          <t>GatesT_qa_saccade_regression_rate_%</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R2" t="n">
         <v>205.7646407612174</v>
@@ -5013,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>9</v>
+        <v>0.6</v>
       </c>
       <c r="R3" t="n">
         <v>259.5850893840605</v>
@@ -5096,7 +5011,7 @@
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>11</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="R4" t="n">
         <v>212.1896668462805</v>
@@ -5179,7 +5094,7 @@
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>11</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="R5" t="n">
         <v>58.44242782775126</v>
@@ -5262,7 +5177,7 @@
         <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>14</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="R6" t="n">
         <v>231.805747239085</v>
@@ -5345,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>9</v>
+        <v>0.6</v>
       </c>
       <c r="R7" t="n">
         <v>128.8748934157832</v>
@@ -5428,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>11</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="R8" t="n">
         <v>127.7764878245353</v>
@@ -5511,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="R9" t="n">
         <v>104.6906813433834</v>
@@ -5594,7 +5509,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>10</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R10" t="n">
         <v>79.12270766565972</v>
@@ -5677,7 +5592,7 @@
         <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>10</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R11" t="n">
         <v>258.0789377339176</v>
@@ -5760,7 +5675,7 @@
         <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>9</v>
+        <v>0.6</v>
       </c>
       <c r="R12" t="n">
         <v>107.0792877563653</v>
@@ -5843,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>4</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="R13" t="n">
         <v>87.35975812862698</v>
@@ -5926,7 +5841,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>11</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="R14" t="n">
         <v>245.198878359072</v>
@@ -6009,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>9</v>
+        <v>0.6</v>
       </c>
       <c r="R15" t="n">
         <v>137.0006866956971</v>
@@ -6092,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R16" t="n">
         <v>117.5732618564442</v>
@@ -6175,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="R17" t="n">
         <v>93.27700747777317</v>
@@ -6258,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>12</v>
+        <v>0.8</v>
       </c>
       <c r="R18" t="n">
         <v>115.8180248214024</v>
@@ -6341,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>13</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="R19" t="n">
         <v>205.1828050638228</v>
@@ -6424,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>11</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="R20" t="n">
         <v>63.23725328470508</v>
@@ -6507,7 +6422,7 @@
         <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>10</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R21" t="n">
         <v>108.731661828926</v>
@@ -6590,7 +6505,7 @@
         <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>10</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R22" t="n">
         <v>63.64907754984552</v>
@@ -6673,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>10</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R23" t="n">
         <v>224.0723945247516</v>
@@ -6756,7 +6671,7 @@
         <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>10</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R24" t="n">
         <v>106.5380288528101</v>
@@ -6839,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>6</v>
+        <v>0.4</v>
       </c>
       <c r="R25" t="n">
         <v>127.1713302703997</v>
@@ -6922,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>7</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="R26" t="n">
         <v>99.53739829300321</v>
@@ -7005,7 +6920,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>12</v>
+        <v>0.8</v>
       </c>
       <c r="R27" t="n">
         <v>267.26916212802</v>
@@ -7088,7 +7003,7 @@
         <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>14</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="R28" t="n">
         <v>94.08368131971555</v>
@@ -7171,7 +7086,7 @@
         <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>10</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R29" t="n">
         <v>485.1967055525676</v>
@@ -7254,7 +7169,7 @@
         <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>9</v>
+        <v>0.6</v>
       </c>
       <c r="R30" t="n">
         <v>201.9046513169943</v>
@@ -7337,7 +7252,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>11</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="R31" t="n">
         <v>66.05121164117335</v>
@@ -7420,7 +7335,7 @@
         <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>12</v>
+        <v>0.8</v>
       </c>
       <c r="R32" t="n">
         <v>161.4216268678416</v>
@@ -7503,7 +7418,7 @@
         <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>10</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R33" t="n">
         <v>181.5583672154493</v>
@@ -7586,7 +7501,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>4</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="R34" t="n">
         <v>116.5657947901081</v>
@@ -7669,7 +7584,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="R35" t="n">
         <v>116.1372732998309</v>
@@ -7752,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>11</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="R36" t="n">
         <v>224.6328129168009</v>
@@ -7835,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>7</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="R37" t="n">
         <v>141.6970007871444</v>
@@ -7918,7 +7833,7 @@
         <v>1</v>
       </c>
       <c r="Q38" t="n">
-        <v>4</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="R38" t="n">
         <v>65.47383424855268</v>
@@ -8001,7 +7916,7 @@
         <v>1</v>
       </c>
       <c r="Q39" t="n">
-        <v>12</v>
+        <v>0.8</v>
       </c>
       <c r="R39" t="n">
         <v>119.0005766558921</v>
@@ -8084,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R40" t="n">
         <v>2289.750914676508</v>
@@ -8167,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>6</v>
+        <v>0.4</v>
       </c>
       <c r="R41" t="n">
         <v>93.81696281381187</v>
@@ -8250,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>11</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="R42" t="n">
         <v>264.7768377420072</v>
@@ -8333,7 +8248,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>9</v>
+        <v>0.6</v>
       </c>
       <c r="R43" t="n">
         <v>104.2399400658093</v>
@@ -8416,7 +8331,7 @@
         <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>12</v>
+        <v>0.8</v>
       </c>
       <c r="R44" t="n">
         <v>40.06437771897972</v>
@@ -8460,7 +8375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BU47"/>
+  <dimension ref="A1:BV47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8834,6 +8749,11 @@
           <t>id</t>
         </is>
       </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>Suffrage_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -9057,6 +8977,9 @@
       <c r="BU2" t="n">
         <v>103</v>
       </c>
+      <c r="BV2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -9280,6 +9203,9 @@
       <c r="BU3" t="n">
         <v>104</v>
       </c>
+      <c r="BV3" t="n">
+        <v>0.4444444444444444</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -9503,6 +9429,9 @@
       <c r="BU4" t="n">
         <v>108</v>
       </c>
+      <c r="BV4" t="n">
+        <v>0.4444444444444444</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -9724,6 +9653,9 @@
       <c r="BU5" t="n">
         <v>109</v>
       </c>
+      <c r="BV5" t="n">
+        <v>0.3888888888888889</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -9947,6 +9879,9 @@
       <c r="BU6" t="n">
         <v>115</v>
       </c>
+      <c r="BV6" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -10170,6 +10105,9 @@
       <c r="BU7" t="n">
         <v>116</v>
       </c>
+      <c r="BV7" t="n">
+        <v>0.4444444444444444</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -10389,6 +10327,9 @@
       <c r="BU8" t="n">
         <v>117</v>
       </c>
+      <c r="BV8" t="n">
+        <v>0.4444444444444444</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -10612,6 +10553,9 @@
       <c r="BU9" t="n">
         <v>120</v>
       </c>
+      <c r="BV9" t="n">
+        <v>0.5555555555555556</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -10835,6 +10779,9 @@
       <c r="BU10" t="n">
         <v>121</v>
       </c>
+      <c r="BV10" t="n">
+        <v>0.6111111111111112</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -11058,6 +11005,9 @@
       <c r="BU11" t="n">
         <v>125</v>
       </c>
+      <c r="BV11" t="n">
+        <v>0.5555555555555556</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -11281,6 +11231,9 @@
       <c r="BU12" t="n">
         <v>126</v>
       </c>
+      <c r="BV12" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -11502,6 +11455,9 @@
       <c r="BU13" t="n">
         <v>128</v>
       </c>
+      <c r="BV13" t="n">
+        <v>0.6111111111111112</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -11725,6 +11681,9 @@
       <c r="BU14" t="n">
         <v>132</v>
       </c>
+      <c r="BV14" t="n">
+        <v>0.7777777777777778</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -11948,6 +11907,9 @@
       <c r="BU15" t="n">
         <v>136</v>
       </c>
+      <c r="BV15" t="n">
+        <v>0.4444444444444444</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -12171,6 +12133,9 @@
       <c r="BU16" t="n">
         <v>138</v>
       </c>
+      <c r="BV16" t="n">
+        <v>0.7222222222222222</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -12394,6 +12359,9 @@
       <c r="BU17" t="n">
         <v>148</v>
       </c>
+      <c r="BV17" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -12617,6 +12585,9 @@
       <c r="BU18" t="n">
         <v>150</v>
       </c>
+      <c r="BV18" t="n">
+        <v>0.6111111111111112</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -12840,6 +12811,9 @@
       <c r="BU19" t="n">
         <v>153</v>
       </c>
+      <c r="BV19" t="n">
+        <v>0.8888888888888888</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -13063,6 +13037,9 @@
       <c r="BU20" t="n">
         <v>156</v>
       </c>
+      <c r="BV20" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -13286,6 +13263,9 @@
       <c r="BU21" t="n">
         <v>157</v>
       </c>
+      <c r="BV21" t="n">
+        <v>0.3888888888888889</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -13507,6 +13487,9 @@
       <c r="BU22" t="n">
         <v>160</v>
       </c>
+      <c r="BV22" t="n">
+        <v>0.2222222222222222</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -13726,6 +13709,9 @@
       <c r="BU23" t="n">
         <v>161</v>
       </c>
+      <c r="BV23" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -13947,6 +13933,9 @@
       <c r="BU24" t="n">
         <v>163</v>
       </c>
+      <c r="BV24" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -14170,6 +14159,9 @@
       <c r="BU25" t="n">
         <v>164</v>
       </c>
+      <c r="BV25" t="n">
+        <v>0.1111111111111111</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -14393,6 +14385,9 @@
       <c r="BU26" t="n">
         <v>165</v>
       </c>
+      <c r="BV26" t="n">
+        <v>0.8888888888888888</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -14616,6 +14611,9 @@
       <c r="BU27" t="n">
         <v>166</v>
       </c>
+      <c r="BV27" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -14839,6 +14837,9 @@
       <c r="BU28" t="n">
         <v>171</v>
       </c>
+      <c r="BV28" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -15062,6 +15063,9 @@
       <c r="BU29" t="n">
         <v>172</v>
       </c>
+      <c r="BV29" t="n">
+        <v>0.8888888888888888</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -15285,6 +15289,9 @@
       <c r="BU30" t="n">
         <v>174</v>
       </c>
+      <c r="BV30" t="n">
+        <v>0.7222222222222222</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -15508,6 +15515,9 @@
       <c r="BU31" t="n">
         <v>175</v>
       </c>
+      <c r="BV31" t="n">
+        <v>0.7222222222222222</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -15731,6 +15741,9 @@
       <c r="BU32" t="n">
         <v>179</v>
       </c>
+      <c r="BV32" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -15954,6 +15967,9 @@
       <c r="BU33" t="n">
         <v>180</v>
       </c>
+      <c r="BV33" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -16177,6 +16193,9 @@
       <c r="BU34" t="n">
         <v>181</v>
       </c>
+      <c r="BV34" t="n">
+        <v>0.7777777777777778</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -16400,6 +16419,9 @@
       <c r="BU35" t="n">
         <v>184</v>
       </c>
+      <c r="BV35" t="n">
+        <v>0.7222222222222222</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -16623,6 +16645,9 @@
       <c r="BU36" t="n">
         <v>185</v>
       </c>
+      <c r="BV36" t="n">
+        <v>0.7222222222222222</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -16846,6 +16871,9 @@
       <c r="BU37" t="n">
         <v>190</v>
       </c>
+      <c r="BV37" t="n">
+        <v>0.4444444444444444</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -17069,6 +17097,9 @@
       <c r="BU38" t="n">
         <v>193</v>
       </c>
+      <c r="BV38" t="n">
+        <v>0.4444444444444444</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -17288,6 +17319,9 @@
       <c r="BU39" t="n">
         <v>195</v>
       </c>
+      <c r="BV39" t="n">
+        <v>0.3888888888888889</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -17511,6 +17545,9 @@
       <c r="BU40" t="n">
         <v>202</v>
       </c>
+      <c r="BV40" t="n">
+        <v>0.2222222222222222</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -17734,6 +17771,9 @@
       <c r="BU41" t="n">
         <v>203</v>
       </c>
+      <c r="BV41" t="n">
+        <v>0.6111111111111112</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -17957,6 +17997,9 @@
       <c r="BU42" t="n">
         <v>205</v>
       </c>
+      <c r="BV42" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -18178,6 +18221,9 @@
       <c r="BU43" t="n">
         <v>207</v>
       </c>
+      <c r="BV43" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -18401,6 +18447,9 @@
       <c r="BU44" t="n">
         <v>209</v>
       </c>
+      <c r="BV44" t="n">
+        <v>0.5555555555555556</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -18624,6 +18673,9 @@
       <c r="BU45" t="n">
         <v>211</v>
       </c>
+      <c r="BV45" t="n">
+        <v>0.5555555555555556</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -18847,6 +18899,9 @@
       <c r="BU46" t="n">
         <v>217</v>
       </c>
+      <c r="BV46" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -19069,6 +19124,9 @@
       </c>
       <c r="BU47" t="n">
         <v>218</v>
+      </c>
+      <c r="BV47" t="n">
+        <v>0.5555555555555556</v>
       </c>
     </row>
   </sheetData>

--- a/data/accumulative_metrics_aggregated.xlsx
+++ b/data/accumulative_metrics_aggregated.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA50"/>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,7 +523,7 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>GatesS_coldread_stopwatch_wpm</t>
+          <t>GatesS_coldread_gaze_wpm_median</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
@@ -625,7 +625,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="R2" t="n">
-        <v>161.4225473367846</v>
+        <v>131.1992329833656</v>
       </c>
       <c r="S2" t="n">
         <v>80.98333333333333</v>
@@ -708,7 +708,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="R3" t="n">
-        <v>200.8195939125012</v>
+        <v>127.6198059017834</v>
       </c>
       <c r="S3" t="n">
         <v>89.32000000000001</v>
@@ -740,10 +740,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -767,10 +767,10 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -782,51 +782,51 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="R4" t="n">
-        <v>1732.13141366308</v>
+        <v>340.9826484611986</v>
       </c>
       <c r="S4" t="n">
-        <v>50</v>
+        <v>78.41666666666667</v>
       </c>
       <c r="T4" t="n">
-        <v>10.96333333333333</v>
+        <v>16.94333333333333</v>
       </c>
       <c r="U4" t="n">
-        <v>3.12</v>
+        <v>4.350000000000001</v>
       </c>
       <c r="V4" t="n">
-        <v>12.45666666666667</v>
+        <v>29.20333333333333</v>
       </c>
       <c r="W4" t="n">
-        <v>28</v>
+        <v>18.32666666666667</v>
       </c>
       <c r="X4" t="n">
-        <v>6.993333333333333</v>
+        <v>39.88</v>
       </c>
       <c r="Y4" t="n">
-        <v>30.55666666666667</v>
+        <v>56.19666666666667</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.143333333333333</v>
+        <v>2.443333333333333</v>
       </c>
       <c r="AA4" t="n">
-        <v>5.69</v>
+        <v>12.21333333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -838,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
@@ -868,60 +868,60 @@
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="R5" t="n">
-        <v>195.9010727162558</v>
+        <v>210.5729997739591</v>
       </c>
       <c r="S5" t="n">
-        <v>67.30666666666667</v>
+        <v>56.41</v>
       </c>
       <c r="T5" t="n">
-        <v>17.26</v>
+        <v>28.95</v>
       </c>
       <c r="U5" t="n">
-        <v>3.446666666666667</v>
+        <v>2.623333333333333</v>
       </c>
       <c r="V5" t="n">
-        <v>18.61333333333333</v>
+        <v>17.89666666666666</v>
       </c>
       <c r="W5" t="n">
-        <v>39.83666666666667</v>
+        <v>20.48</v>
       </c>
       <c r="X5" t="n">
-        <v>4.013333333333334</v>
+        <v>28.14333333333333</v>
       </c>
       <c r="Y5" t="n">
-        <v>43.37666666666667</v>
+        <v>46.15333333333334</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.633333333333333</v>
+        <v>3.066666666666667</v>
       </c>
       <c r="AA5" t="n">
-        <v>7.153333333333333</v>
+        <v>8.449999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -951,48 +951,48 @@
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R6" t="n">
-        <v>230.9704119049853</v>
+        <v>94.34168848600102</v>
       </c>
       <c r="S6" t="n">
-        <v>78.41666666666667</v>
+        <v>83.76333333333334</v>
       </c>
       <c r="T6" t="n">
-        <v>16.94333333333333</v>
+        <v>83.93000000000001</v>
       </c>
       <c r="U6" t="n">
-        <v>4.350000000000001</v>
+        <v>2.97</v>
       </c>
       <c r="V6" t="n">
-        <v>29.20333333333333</v>
+        <v>24.69333333333333</v>
       </c>
       <c r="W6" t="n">
-        <v>18.32666666666667</v>
+        <v>55.45333333333334</v>
       </c>
       <c r="X6" t="n">
-        <v>39.88</v>
+        <v>19.31666666666667</v>
       </c>
       <c r="Y6" t="n">
-        <v>56.19666666666667</v>
+        <v>39.95666666666667</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.443333333333333</v>
+        <v>1.91</v>
       </c>
       <c r="AA6" t="n">
-        <v>12.21333333333333</v>
+        <v>4.303333333333334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1004,78 +1004,78 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="R7" t="n">
-        <v>150.6655062657399</v>
+        <v>109.1656688917865</v>
       </c>
       <c r="S7" t="n">
-        <v>56.41</v>
+        <v>78.84666666666666</v>
       </c>
       <c r="T7" t="n">
-        <v>28.95</v>
+        <v>55.18666666666667</v>
       </c>
       <c r="U7" t="n">
-        <v>2.623333333333333</v>
+        <v>2.98</v>
       </c>
       <c r="V7" t="n">
-        <v>17.89666666666666</v>
+        <v>21.66333333333334</v>
       </c>
       <c r="W7" t="n">
-        <v>20.48</v>
+        <v>57.82</v>
       </c>
       <c r="X7" t="n">
-        <v>28.14333333333333</v>
+        <v>10.45666666666667</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.15333333333334</v>
+        <v>36.11333333333334</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.066666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="AA7" t="n">
-        <v>8.449999999999999</v>
+        <v>3.266666666666666</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
@@ -1114,60 +1114,60 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="R8" t="n">
-        <v>78.66525276624803</v>
+        <v>155.638024511738</v>
       </c>
       <c r="S8" t="n">
-        <v>83.76333333333334</v>
+        <v>89.53000000000002</v>
       </c>
       <c r="T8" t="n">
-        <v>83.93000000000001</v>
+        <v>33.76666666666667</v>
       </c>
       <c r="U8" t="n">
-        <v>2.97</v>
+        <v>3.75</v>
       </c>
       <c r="V8" t="n">
-        <v>24.69333333333333</v>
+        <v>24.26666666666667</v>
       </c>
       <c r="W8" t="n">
-        <v>55.45333333333334</v>
+        <v>35.5</v>
       </c>
       <c r="X8" t="n">
-        <v>19.31666666666667</v>
+        <v>25.96333333333333</v>
       </c>
       <c r="Y8" t="n">
-        <v>39.95666666666667</v>
+        <v>59.82666666666666</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.91</v>
+        <v>3.286666666666667</v>
       </c>
       <c r="AA8" t="n">
-        <v>4.303333333333334</v>
+        <v>10.10333333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -1176,16 +1176,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -1203,60 +1203,60 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R9" t="n">
-        <v>220.1464052516301</v>
+        <v>200.1300994090503</v>
       </c>
       <c r="S9" t="n">
+        <v>100</v>
+      </c>
+      <c r="T9" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="U9" t="n">
+        <v>3.796666666666667</v>
+      </c>
+      <c r="V9" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="W9" t="n">
+        <v>37.47666666666667</v>
+      </c>
+      <c r="X9" t="n">
+        <v>43.94</v>
+      </c>
+      <c r="Y9" t="n">
         <v>64.31666666666666</v>
       </c>
-      <c r="T9" t="n">
-        <v>39.98</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.993333333333334</v>
-      </c>
-      <c r="V9" t="n">
-        <v>24.04</v>
-      </c>
-      <c r="W9" t="n">
-        <v>13.29666666666667</v>
-      </c>
-      <c r="X9" t="n">
-        <v>1.176666666666667</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>5.556666666666668</v>
-      </c>
       <c r="Z9" t="n">
-        <v>1.383333333333334</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.7400000000000001</v>
+        <v>11.53666666666667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1280,69 +1280,69 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="R10" t="n">
-        <v>108.2465071856666</v>
+        <v>115.7444741885425</v>
       </c>
       <c r="S10" t="n">
-        <v>78.84666666666666</v>
+        <v>86.54000000000001</v>
       </c>
       <c r="T10" t="n">
-        <v>55.18666666666667</v>
+        <v>41.20666666666666</v>
       </c>
       <c r="U10" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="V10" t="n">
-        <v>21.66333333333334</v>
+        <v>22.51</v>
       </c>
       <c r="W10" t="n">
-        <v>57.82</v>
+        <v>61.46666666666667</v>
       </c>
       <c r="X10" t="n">
-        <v>10.45666666666667</v>
+        <v>32.22666666666667</v>
       </c>
       <c r="Y10" t="n">
-        <v>36.11333333333334</v>
+        <v>83.54666666666667</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.8666666666666667</v>
+        <v>2.923333333333333</v>
       </c>
       <c r="AA10" t="n">
-        <v>3.266666666666666</v>
+        <v>12.06666666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1351,69 +1351,69 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="R11" t="n">
-        <v>154.4902830812084</v>
+        <v>109.1796086166764</v>
       </c>
       <c r="S11" t="n">
-        <v>89.53000000000002</v>
+        <v>81.41000000000001</v>
       </c>
       <c r="T11" t="n">
-        <v>33.76666666666667</v>
+        <v>48.60666666666666</v>
       </c>
       <c r="U11" t="n">
-        <v>3.75</v>
+        <v>3.366666666666667</v>
       </c>
       <c r="V11" t="n">
-        <v>24.26666666666667</v>
+        <v>21.93333333333333</v>
       </c>
       <c r="W11" t="n">
-        <v>35.5</v>
+        <v>50.34333333333333</v>
       </c>
       <c r="X11" t="n">
-        <v>25.96333333333333</v>
+        <v>33.28333333333333</v>
       </c>
       <c r="Y11" t="n">
-        <v>59.82666666666666</v>
+        <v>57.05</v>
       </c>
       <c r="Z11" t="n">
-        <v>3.286666666666667</v>
+        <v>3.543333333333333</v>
       </c>
       <c r="AA11" t="n">
-        <v>10.10333333333333</v>
+        <v>7.073333333333333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -1425,69 +1425,69 @@
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="R12" t="n">
-        <v>208.2899087380993</v>
+        <v>144.2923855306299</v>
       </c>
       <c r="S12" t="n">
-        <v>100</v>
+        <v>69.66000000000001</v>
       </c>
       <c r="T12" t="n">
-        <v>26.66</v>
+        <v>17.8</v>
       </c>
       <c r="U12" t="n">
-        <v>3.796666666666667</v>
+        <v>3.72</v>
       </c>
       <c r="V12" t="n">
-        <v>21.08</v>
+        <v>28.70666666666667</v>
       </c>
       <c r="W12" t="n">
-        <v>37.47666666666667</v>
+        <v>23.90666666666667</v>
       </c>
       <c r="X12" t="n">
-        <v>43.94</v>
+        <v>26.13333333333334</v>
       </c>
       <c r="Y12" t="n">
-        <v>64.31666666666666</v>
+        <v>58.54666666666666</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.166666666666667</v>
+        <v>2.36</v>
       </c>
       <c r="AA12" t="n">
-        <v>11.53666666666667</v>
+        <v>11.97666666666667</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -1496,13 +1496,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
@@ -1535,45 +1535,45 @@
         <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="R13" t="n">
-        <v>126.5362655548764</v>
+        <v>68.36106766198982</v>
       </c>
       <c r="S13" t="n">
-        <v>86.54000000000001</v>
+        <v>89.10333333333334</v>
       </c>
       <c r="T13" t="n">
-        <v>41.20666666666666</v>
+        <v>50.31</v>
       </c>
       <c r="U13" t="n">
-        <v>3.05</v>
+        <v>2.983333333333333</v>
       </c>
       <c r="V13" t="n">
-        <v>22.51</v>
+        <v>20.15333333333333</v>
       </c>
       <c r="W13" t="n">
-        <v>61.46666666666667</v>
+        <v>49.57</v>
       </c>
       <c r="X13" t="n">
-        <v>32.22666666666667</v>
+        <v>31.13</v>
       </c>
       <c r="Y13" t="n">
-        <v>83.54666666666667</v>
+        <v>48.07666666666668</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.923333333333333</v>
+        <v>1.586666666666667</v>
       </c>
       <c r="AA13" t="n">
-        <v>12.06666666666667</v>
+        <v>5.706666666666666</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -1600,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
@@ -1609,10 +1609,10 @@
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -1621,75 +1621,75 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="R14" t="n">
-        <v>127.4159472462079</v>
+        <v>168.2032563535987</v>
       </c>
       <c r="S14" t="n">
-        <v>81.41000000000001</v>
+        <v>80.98666666666666</v>
       </c>
       <c r="T14" t="n">
-        <v>48.60666666666666</v>
+        <v>27.77</v>
       </c>
       <c r="U14" t="n">
-        <v>3.366666666666667</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="V14" t="n">
-        <v>21.93333333333333</v>
+        <v>23.84</v>
       </c>
       <c r="W14" t="n">
-        <v>50.34333333333333</v>
+        <v>29.45</v>
       </c>
       <c r="X14" t="n">
-        <v>33.28333333333333</v>
+        <v>12.37</v>
       </c>
       <c r="Y14" t="n">
-        <v>57.05</v>
+        <v>47.86333333333334</v>
       </c>
       <c r="Z14" t="n">
-        <v>3.543333333333333</v>
+        <v>1.686666666666667</v>
       </c>
       <c r="AA14" t="n">
-        <v>7.073333333333333</v>
+        <v>6.263333333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1701,42 +1701,42 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.4</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R15" t="n">
-        <v>95.25964602421892</v>
+        <v>168.0512176419468</v>
       </c>
       <c r="S15" t="n">
-        <v>78.63</v>
+        <v>91.66666666666667</v>
       </c>
       <c r="T15" t="n">
-        <v>39.00333333333334</v>
+        <v>27.70333333333333</v>
       </c>
       <c r="U15" t="n">
-        <v>3.473333333333333</v>
+        <v>3.246666666666667</v>
       </c>
       <c r="V15" t="n">
-        <v>10.94666666666667</v>
+        <v>23.44</v>
       </c>
       <c r="W15" t="n">
-        <v>30.30666666666667</v>
+        <v>36.92666666666667</v>
       </c>
       <c r="X15" t="n">
-        <v>26.51</v>
+        <v>3.86</v>
       </c>
       <c r="Y15" t="n">
-        <v>70.08333333333333</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.476666666666667</v>
+        <v>1.233333333333333</v>
       </c>
       <c r="AA15" t="n">
-        <v>7.966666666666666</v>
+        <v>2.823333333333334</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -1745,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1757,16 +1757,16 @@
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>1</v>
@@ -1784,45 +1784,45 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="R16" t="n">
-        <v>107.9013802005087</v>
+        <v>68.74558960300756</v>
       </c>
       <c r="S16" t="n">
-        <v>55.77</v>
+        <v>91.66666666666667</v>
       </c>
       <c r="T16" t="n">
-        <v>79.53666666666668</v>
+        <v>84.42</v>
       </c>
       <c r="U16" t="n">
-        <v>1.216666666666667</v>
+        <v>3.133333333333333</v>
       </c>
       <c r="V16" t="n">
-        <v>17.26</v>
+        <v>18.95666666666667</v>
       </c>
       <c r="W16" t="n">
-        <v>27.6</v>
+        <v>122.7133333333333</v>
       </c>
       <c r="X16" t="n">
-        <v>26.02666666666667</v>
+        <v>84.68000000000001</v>
       </c>
       <c r="Y16" t="n">
-        <v>72.65333333333334</v>
+        <v>81.19666666666667</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.583333333333333</v>
+        <v>3.156666666666667</v>
       </c>
       <c r="AA16" t="n">
-        <v>14.50333333333334</v>
+        <v>11.53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1840,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>1</v>
@@ -1864,45 +1864,45 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="R17" t="n">
-        <v>117.8028816213944</v>
+        <v>79.18143857435643</v>
       </c>
       <c r="S17" t="n">
-        <v>68.16</v>
+        <v>81.19333333333333</v>
       </c>
       <c r="T17" t="n">
-        <v>42.07</v>
+        <v>53.31666666666666</v>
       </c>
       <c r="U17" t="n">
-        <v>2.176666666666667</v>
+        <v>3.323333333333334</v>
       </c>
       <c r="V17" t="n">
-        <v>19.78333333333333</v>
+        <v>17.93666666666667</v>
       </c>
       <c r="W17" t="n">
-        <v>34.72666666666667</v>
+        <v>65.97666666666666</v>
       </c>
       <c r="X17" t="n">
-        <v>6.093333333333334</v>
+        <v>1.463333333333334</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.693333333333332</v>
+        <v>22.22333333333333</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.3366666666666667</v>
+        <v>1.136666666666667</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.853333333333333</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -1923,16 +1923,16 @@
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
@@ -1941,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
         <v>1</v>
@@ -1950,45 +1950,45 @@
         <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="R18" t="n">
-        <v>282.9406415632965</v>
+        <v>71.30582982046511</v>
       </c>
       <c r="S18" t="n">
-        <v>69.66000000000001</v>
+        <v>86.75333333333333</v>
       </c>
       <c r="T18" t="n">
-        <v>17.8</v>
+        <v>51.38333333333333</v>
       </c>
       <c r="U18" t="n">
-        <v>3.72</v>
+        <v>3.31</v>
       </c>
       <c r="V18" t="n">
-        <v>28.70666666666667</v>
+        <v>29.79666666666667</v>
       </c>
       <c r="W18" t="n">
-        <v>23.90666666666667</v>
+        <v>36.89</v>
       </c>
       <c r="X18" t="n">
-        <v>26.13333333333334</v>
+        <v>18.77666666666667</v>
       </c>
       <c r="Y18" t="n">
-        <v>58.54666666666666</v>
+        <v>61.75</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.36</v>
+        <v>3.736666666666667</v>
       </c>
       <c r="AA18" t="n">
-        <v>11.97666666666667</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -2003,75 +2003,75 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.6</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="R19" t="n">
-        <v>101.2610369324589</v>
+        <v>170.9922638244439</v>
       </c>
       <c r="S19" t="n">
-        <v>89.10333333333334</v>
+        <v>78.20666666666666</v>
       </c>
       <c r="T19" t="n">
-        <v>50.31</v>
+        <v>18.57333333333333</v>
       </c>
       <c r="U19" t="n">
-        <v>2.983333333333333</v>
+        <v>3.03</v>
       </c>
       <c r="V19" t="n">
-        <v>20.15333333333333</v>
+        <v>22.64333333333333</v>
       </c>
       <c r="W19" t="n">
-        <v>49.57</v>
+        <v>35.42</v>
       </c>
       <c r="X19" t="n">
-        <v>31.13</v>
+        <v>47.85666666666666</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.07666666666668</v>
+        <v>86.54000000000001</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.586666666666667</v>
+        <v>3.546666666666667</v>
       </c>
       <c r="AA19" t="n">
-        <v>5.706666666666666</v>
+        <v>12.82333333333333</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -2095,10 +2095,10 @@
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
@@ -2113,45 +2113,45 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="R20" t="n">
-        <v>159.2049057083986</v>
+        <v>168.0933751219405</v>
       </c>
       <c r="S20" t="n">
-        <v>80.98666666666666</v>
+        <v>80.98333333333333</v>
       </c>
       <c r="T20" t="n">
-        <v>27.77</v>
+        <v>60.62333333333333</v>
       </c>
       <c r="U20" t="n">
-        <v>2.916666666666667</v>
+        <v>2.313333333333333</v>
       </c>
       <c r="V20" t="n">
-        <v>23.84</v>
+        <v>23.65666666666667</v>
       </c>
       <c r="W20" t="n">
-        <v>29.45</v>
+        <v>58.05</v>
       </c>
       <c r="X20" t="n">
-        <v>12.37</v>
+        <v>27.96</v>
       </c>
       <c r="Y20" t="n">
-        <v>47.86333333333334</v>
+        <v>72.86333333333334</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.686666666666667</v>
+        <v>1.873333333333333</v>
       </c>
       <c r="AA20" t="n">
-        <v>6.263333333333333</v>
+        <v>8.336666666666666</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -2172,13 +2172,13 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2190,51 +2190,51 @@
         <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="R21" t="n">
-        <v>135.1991606742248</v>
+        <v>91.21854337564923</v>
       </c>
       <c r="S21" t="n">
-        <v>91.66666666666667</v>
+        <v>86.75333333333333</v>
       </c>
       <c r="T21" t="n">
-        <v>27.70333333333333</v>
+        <v>39.94666666666667</v>
       </c>
       <c r="U21" t="n">
-        <v>3.246666666666667</v>
+        <v>3.13</v>
       </c>
       <c r="V21" t="n">
-        <v>23.44</v>
+        <v>16.81666666666667</v>
       </c>
       <c r="W21" t="n">
-        <v>36.92666666666667</v>
+        <v>84.37</v>
       </c>
       <c r="X21" t="n">
-        <v>3.86</v>
+        <v>1.606666666666667</v>
       </c>
       <c r="Y21" t="n">
-        <v>33.33333333333334</v>
+        <v>15.81333333333333</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.233333333333333</v>
+        <v>1.796666666666667</v>
       </c>
       <c r="AA21" t="n">
-        <v>2.823333333333334</v>
+        <v>0.2066666666666667</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -2243,25 +2243,25 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>1</v>
@@ -2270,54 +2270,54 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="R22" t="n">
-        <v>71.06256960382449</v>
+        <v>155.1747869780049</v>
       </c>
       <c r="S22" t="n">
-        <v>91.66666666666667</v>
+        <v>83.97333333333334</v>
       </c>
       <c r="T22" t="n">
-        <v>84.42</v>
+        <v>19.01666666666667</v>
       </c>
       <c r="U22" t="n">
-        <v>3.133333333333333</v>
+        <v>3.606666666666667</v>
       </c>
       <c r="V22" t="n">
-        <v>18.95666666666667</v>
+        <v>22.57666666666667</v>
       </c>
       <c r="W22" t="n">
-        <v>122.7133333333333</v>
+        <v>54.24</v>
       </c>
       <c r="X22" t="n">
-        <v>84.68000000000001</v>
+        <v>36.84</v>
       </c>
       <c r="Y22" t="n">
-        <v>81.19666666666667</v>
+        <v>75.43000000000001</v>
       </c>
       <c r="Z22" t="n">
-        <v>3.156666666666667</v>
+        <v>3.01</v>
       </c>
       <c r="AA22" t="n">
-        <v>11.53</v>
+        <v>12.65</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -2326,16 +2326,16 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -2350,57 +2350,57 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R23" t="n">
-        <v>113.2214394695388</v>
+        <v>126.7237109619874</v>
       </c>
       <c r="S23" t="n">
-        <v>81.19333333333333</v>
+        <v>97.22333333333334</v>
       </c>
       <c r="T23" t="n">
-        <v>53.31666666666666</v>
+        <v>33.62666666666667</v>
       </c>
       <c r="U23" t="n">
-        <v>3.323333333333334</v>
+        <v>3.533333333333333</v>
       </c>
       <c r="V23" t="n">
-        <v>17.93666666666667</v>
+        <v>21.76666666666667</v>
       </c>
       <c r="W23" t="n">
-        <v>65.97666666666666</v>
+        <v>47.39666666666667</v>
       </c>
       <c r="X23" t="n">
-        <v>1.463333333333334</v>
+        <v>22.89333333333333</v>
       </c>
       <c r="Y23" t="n">
-        <v>22.22333333333333</v>
+        <v>70.72666666666666</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.136666666666667</v>
+        <v>2.713333333333333</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.27</v>
+        <v>9.046666666666667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2424,13 +2424,13 @@
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
         <v>1</v>
@@ -2439,51 +2439,51 @@
         <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="R24" t="n">
-        <v>76.92536981607121</v>
+        <v>164.2158812178089</v>
       </c>
       <c r="S24" t="n">
-        <v>63.89000000000001</v>
+        <v>86.32666666666667</v>
       </c>
       <c r="T24" t="n">
-        <v>49.15333333333334</v>
+        <v>61.21333333333333</v>
       </c>
       <c r="U24" t="n">
-        <v>2.463333333333333</v>
+        <v>3.066666666666667</v>
       </c>
       <c r="V24" t="n">
-        <v>30.53</v>
+        <v>20.29333333333333</v>
       </c>
       <c r="W24" t="n">
-        <v>83.08333333333333</v>
+        <v>33.72333333333333</v>
       </c>
       <c r="X24" t="n">
-        <v>40.77333333333333</v>
+        <v>29.63666666666667</v>
       </c>
       <c r="Y24" t="n">
-        <v>59.61666666666667</v>
+        <v>64.53</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.943333333333333</v>
+        <v>2.036666666666667</v>
       </c>
       <c r="AA24" t="n">
-        <v>12.42333333333333</v>
+        <v>14.03666666666667</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
         <v>1</v>
@@ -2522,51 +2522,51 @@
         <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
         <v>0.6</v>
       </c>
       <c r="R25" t="n">
-        <v>255.3338545235948</v>
+        <v>176.7126183973319</v>
       </c>
       <c r="S25" t="n">
-        <v>65.81333333333335</v>
+        <v>73.71666666666667</v>
       </c>
       <c r="T25" t="n">
-        <v>17.80333333333333</v>
+        <v>19.52666666666667</v>
       </c>
       <c r="U25" t="n">
-        <v>2.816666666666667</v>
+        <v>3.803333333333333</v>
       </c>
       <c r="V25" t="n">
-        <v>18.85</v>
+        <v>17.54</v>
       </c>
       <c r="W25" t="n">
-        <v>53.86666666666667</v>
+        <v>35.56666666666666</v>
       </c>
       <c r="X25" t="n">
-        <v>11.04666666666667</v>
+        <v>27.19666666666667</v>
       </c>
       <c r="Y25" t="n">
-        <v>40.38333333333333</v>
+        <v>80.98333333333333</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.593333333333333</v>
+        <v>3.586666666666667</v>
       </c>
       <c r="AA25" t="n">
-        <v>5.556666666666666</v>
+        <v>11.59666666666667</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -2575,31 +2575,31 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
@@ -2614,51 +2614,51 @@
         <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R26" t="n">
-        <v>92.62187786844795</v>
+        <v>118.3934584147091</v>
       </c>
       <c r="S26" t="n">
-        <v>42.73333333333333</v>
+        <v>67.30666666666667</v>
       </c>
       <c r="T26" t="n">
-        <v>21.74</v>
+        <v>19.83666666666667</v>
       </c>
       <c r="U26" t="n">
-        <v>1.64</v>
+        <v>3.163333333333334</v>
       </c>
       <c r="V26" t="n">
-        <v>12.31333333333333</v>
+        <v>24.59</v>
       </c>
       <c r="W26" t="n">
-        <v>15.32333333333333</v>
+        <v>38.39333333333334</v>
       </c>
       <c r="X26" t="n">
-        <v>0.6866666666666666</v>
+        <v>2.853333333333333</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.02333333333333333</v>
+        <v>1.336666666666667</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>2.656666666666667</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -2667,22 +2667,22 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
@@ -2694,51 +2694,51 @@
         <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="R27" t="n">
-        <v>118.7677833212591</v>
+        <v>210.1238068244652</v>
       </c>
       <c r="S27" t="n">
-        <v>86.75333333333333</v>
+        <v>88.89</v>
       </c>
       <c r="T27" t="n">
-        <v>51.38333333333333</v>
+        <v>34.22666666666667</v>
       </c>
       <c r="U27" t="n">
-        <v>3.31</v>
+        <v>2.843333333333334</v>
       </c>
       <c r="V27" t="n">
-        <v>29.79666666666667</v>
+        <v>19.08333333333333</v>
       </c>
       <c r="W27" t="n">
-        <v>36.89</v>
+        <v>84.82333333333334</v>
       </c>
       <c r="X27" t="n">
-        <v>18.77666666666667</v>
+        <v>48.06</v>
       </c>
       <c r="Y27" t="n">
-        <v>61.75</v>
+        <v>72.86</v>
       </c>
       <c r="Z27" t="n">
-        <v>3.736666666666667</v>
+        <v>2.58</v>
       </c>
       <c r="AA27" t="n">
-        <v>8.19</v>
+        <v>10.17333333333333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -2759,10 +2759,10 @@
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
         <v>1</v>
@@ -2774,48 +2774,48 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="R28" t="n">
-        <v>212.8726044686339</v>
+        <v>174.7952894449867</v>
       </c>
       <c r="S28" t="n">
-        <v>61.54</v>
+        <v>81.19666666666667</v>
       </c>
       <c r="T28" t="n">
-        <v>27.50666666666667</v>
+        <v>28.78</v>
       </c>
       <c r="U28" t="n">
-        <v>3.003333333333333</v>
+        <v>2.726666666666667</v>
       </c>
       <c r="V28" t="n">
-        <v>20.92</v>
+        <v>18.68</v>
       </c>
       <c r="W28" t="n">
-        <v>67.18333333333334</v>
+        <v>38.21</v>
       </c>
       <c r="X28" t="n">
-        <v>4.77</v>
+        <v>24.67</v>
       </c>
       <c r="Y28" t="n">
-        <v>38.03333333333333</v>
+        <v>72.64999999999999</v>
       </c>
       <c r="Z28" t="n">
-        <v>2.906666666666667</v>
+        <v>1.756666666666667</v>
       </c>
       <c r="AA28" t="n">
-        <v>2.523333333333333</v>
+        <v>12.19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -2833,10 +2833,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -2848,60 +2848,60 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="R29" t="n">
-        <v>179.8902745590129</v>
+        <v>91.00962321861311</v>
       </c>
       <c r="S29" t="n">
-        <v>78.20666666666666</v>
+        <v>89.10333333333334</v>
       </c>
       <c r="T29" t="n">
-        <v>18.57333333333333</v>
+        <v>65.38</v>
       </c>
       <c r="U29" t="n">
-        <v>3.03</v>
+        <v>3.263333333333333</v>
       </c>
       <c r="V29" t="n">
-        <v>22.64333333333333</v>
+        <v>25.31666666666667</v>
       </c>
       <c r="W29" t="n">
-        <v>35.42</v>
+        <v>63.42666666666667</v>
       </c>
       <c r="X29" t="n">
-        <v>47.85666666666666</v>
+        <v>41.21666666666667</v>
       </c>
       <c r="Y29" t="n">
-        <v>86.54000000000001</v>
+        <v>73.07666666666667</v>
       </c>
       <c r="Z29" t="n">
-        <v>3.546666666666667</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AA29" t="n">
-        <v>12.82333333333333</v>
+        <v>12.89333333333333</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -2925,78 +2925,78 @@
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R30" t="n">
-        <v>95.60560859564646</v>
+        <v>113.7467335946042</v>
       </c>
       <c r="S30" t="n">
-        <v>80.98333333333333</v>
+        <v>81.41000000000001</v>
       </c>
       <c r="T30" t="n">
-        <v>60.62333333333333</v>
+        <v>37.09333333333333</v>
       </c>
       <c r="U30" t="n">
-        <v>2.313333333333333</v>
+        <v>3.55</v>
       </c>
       <c r="V30" t="n">
-        <v>23.65666666666667</v>
+        <v>20.87</v>
       </c>
       <c r="W30" t="n">
-        <v>58.05</v>
+        <v>87.2</v>
       </c>
       <c r="X30" t="n">
-        <v>27.96</v>
+        <v>50.46</v>
       </c>
       <c r="Y30" t="n">
-        <v>72.86333333333334</v>
+        <v>78.63</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.873333333333333</v>
+        <v>3.283333333333333</v>
       </c>
       <c r="AA30" t="n">
-        <v>8.336666666666666</v>
+        <v>14.18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -3005,13 +3005,13 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
         <v>1</v>
@@ -3020,51 +3020,51 @@
         <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="R31" t="n">
-        <v>146.2913690967316</v>
+        <v>141.2994217980836</v>
       </c>
       <c r="S31" t="n">
-        <v>86.75333333333333</v>
+        <v>86.54000000000001</v>
       </c>
       <c r="T31" t="n">
-        <v>39.94666666666667</v>
+        <v>41.13</v>
       </c>
       <c r="U31" t="n">
-        <v>3.13</v>
+        <v>3.37</v>
       </c>
       <c r="V31" t="n">
-        <v>16.81666666666667</v>
+        <v>23.51666666666667</v>
       </c>
       <c r="W31" t="n">
-        <v>84.37</v>
+        <v>41.72333333333334</v>
       </c>
       <c r="X31" t="n">
-        <v>1.606666666666667</v>
+        <v>13.53666666666667</v>
       </c>
       <c r="Y31" t="n">
-        <v>15.81333333333333</v>
+        <v>65.17333333333333</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.796666666666667</v>
+        <v>3.496666666666667</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.2066666666666667</v>
+        <v>6.436666666666667</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -3082,28 +3082,28 @@
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>1</v>
@@ -3112,45 +3112,45 @@
         <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="R32" t="n">
-        <v>398.6376667465486</v>
+        <v>81.24073254918916</v>
       </c>
       <c r="S32" t="n">
-        <v>70.93666666666667</v>
+        <v>89.32000000000001</v>
       </c>
       <c r="T32" t="n">
-        <v>18.23</v>
+        <v>75.20666666666666</v>
       </c>
       <c r="U32" t="n">
-        <v>2.986666666666666</v>
+        <v>3.203333333333333</v>
       </c>
       <c r="V32" t="n">
-        <v>21.49333333333334</v>
+        <v>22.21666666666667</v>
       </c>
       <c r="W32" t="n">
-        <v>37.37</v>
+        <v>103.6733333333333</v>
       </c>
       <c r="X32" t="n">
-        <v>22.09333333333333</v>
+        <v>57.23333333333334</v>
       </c>
       <c r="Y32" t="n">
-        <v>62.39666666666667</v>
+        <v>54.48666666666667</v>
       </c>
       <c r="Z32" t="n">
-        <v>2.046666666666666</v>
+        <v>3.116666666666667</v>
       </c>
       <c r="AA32" t="n">
-        <v>10.12333333333333</v>
+        <v>9.916666666666666</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -3162,28 +3162,28 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -3195,48 +3195,48 @@
         <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="R33" t="n">
-        <v>233.8725312644737</v>
+        <v>202.5464953939522</v>
       </c>
       <c r="S33" t="n">
-        <v>83.97333333333334</v>
+        <v>86.54000000000001</v>
       </c>
       <c r="T33" t="n">
-        <v>19.01666666666667</v>
+        <v>31.52</v>
       </c>
       <c r="U33" t="n">
-        <v>3.606666666666667</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="V33" t="n">
-        <v>22.57666666666667</v>
+        <v>24.16333333333334</v>
       </c>
       <c r="W33" t="n">
-        <v>54.24</v>
+        <v>37.22666666666667</v>
       </c>
       <c r="X33" t="n">
-        <v>36.84</v>
+        <v>5.183333333333334</v>
       </c>
       <c r="Y33" t="n">
-        <v>75.43000000000001</v>
+        <v>21.58333333333333</v>
       </c>
       <c r="Z33" t="n">
-        <v>3.01</v>
+        <v>0.8366666666666668</v>
       </c>
       <c r="AA33" t="n">
-        <v>12.65</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -3245,16 +3245,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3278,42 +3278,42 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R34" t="n">
-        <v>152.1084425080309</v>
+        <v>186.6808105967733</v>
       </c>
       <c r="S34" t="n">
-        <v>97.22333333333334</v>
+        <v>86.32666666666667</v>
       </c>
       <c r="T34" t="n">
-        <v>33.62666666666667</v>
+        <v>15.60333333333333</v>
       </c>
       <c r="U34" t="n">
-        <v>3.533333333333333</v>
+        <v>3.8</v>
       </c>
       <c r="V34" t="n">
-        <v>21.76666666666667</v>
+        <v>19.88</v>
       </c>
       <c r="W34" t="n">
-        <v>47.39666666666667</v>
+        <v>31.57</v>
       </c>
       <c r="X34" t="n">
-        <v>22.89333333333333</v>
+        <v>18.54666666666667</v>
       </c>
       <c r="Y34" t="n">
-        <v>70.72666666666666</v>
+        <v>32.48</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.713333333333333</v>
+        <v>2.303333333333333</v>
       </c>
       <c r="AA34" t="n">
-        <v>9.046666666666667</v>
+        <v>4.776666666666666</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -3349,54 +3349,54 @@
         <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R35" t="n">
-        <v>70.43741337502868</v>
+        <v>126.4981272336658</v>
       </c>
       <c r="S35" t="n">
-        <v>86.32666666666667</v>
+        <v>73.50666666666667</v>
       </c>
       <c r="T35" t="n">
-        <v>61.21333333333333</v>
+        <v>25.75</v>
       </c>
       <c r="U35" t="n">
-        <v>3.066666666666667</v>
+        <v>3.363333333333333</v>
       </c>
       <c r="V35" t="n">
-        <v>20.29333333333333</v>
+        <v>28.48666666666667</v>
       </c>
       <c r="W35" t="n">
-        <v>33.72333333333333</v>
+        <v>46.66333333333333</v>
       </c>
       <c r="X35" t="n">
-        <v>29.63666666666667</v>
+        <v>21.61666666666666</v>
       </c>
       <c r="Y35" t="n">
-        <v>64.53</v>
+        <v>50</v>
       </c>
       <c r="Z35" t="n">
-        <v>2.036666666666667</v>
+        <v>2.21</v>
       </c>
       <c r="AA35" t="n">
-        <v>14.03666666666667</v>
+        <v>9.220000000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -3405,28 +3405,28 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>1</v>
@@ -3435,1207 +3435,45 @@
         <v>1</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R36" t="n">
-        <v>228.4210638035456</v>
+        <v>128.5015536741392</v>
       </c>
       <c r="S36" t="n">
-        <v>73.71666666666667</v>
+        <v>75.43000000000001</v>
       </c>
       <c r="T36" t="n">
-        <v>19.52666666666667</v>
+        <v>46.69666666666667</v>
       </c>
       <c r="U36" t="n">
-        <v>3.803333333333333</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="V36" t="n">
-        <v>17.54</v>
+        <v>21.48</v>
       </c>
       <c r="W36" t="n">
-        <v>35.56666666666666</v>
+        <v>78.55333333333333</v>
       </c>
       <c r="X36" t="n">
-        <v>27.19666666666667</v>
+        <v>62.32333333333333</v>
       </c>
       <c r="Y36" t="n">
-        <v>80.98333333333333</v>
+        <v>62.82</v>
       </c>
       <c r="Z36" t="n">
-        <v>3.586666666666667</v>
+        <v>2.716666666666667</v>
       </c>
       <c r="AA36" t="n">
-        <v>11.59666666666667</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>185</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>1</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="R37" t="n">
-        <v>184.1415663305447</v>
-      </c>
-      <c r="S37" t="n">
-        <v>67.30666666666667</v>
-      </c>
-      <c r="T37" t="n">
-        <v>19.83666666666667</v>
-      </c>
-      <c r="U37" t="n">
-        <v>3.163333333333334</v>
-      </c>
-      <c r="V37" t="n">
-        <v>24.59</v>
-      </c>
-      <c r="W37" t="n">
-        <v>38.39333333333334</v>
-      </c>
-      <c r="X37" t="n">
-        <v>2.853333333333333</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>1.336666666666667</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>2.656666666666667</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>190</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="R38" t="n">
-        <v>155.6367878106364</v>
-      </c>
-      <c r="S38" t="n">
-        <v>88.89</v>
-      </c>
-      <c r="T38" t="n">
-        <v>34.22666666666667</v>
-      </c>
-      <c r="U38" t="n">
-        <v>2.843333333333334</v>
-      </c>
-      <c r="V38" t="n">
-        <v>19.08333333333333</v>
-      </c>
-      <c r="W38" t="n">
-        <v>84.82333333333334</v>
-      </c>
-      <c r="X38" t="n">
-        <v>48.06</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>72.86</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>10.17333333333333</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>193</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="R39" t="n">
-        <v>193.7417144904911</v>
-      </c>
-      <c r="S39" t="n">
-        <v>81.19666666666667</v>
-      </c>
-      <c r="T39" t="n">
-        <v>28.78</v>
-      </c>
-      <c r="U39" t="n">
-        <v>2.726666666666667</v>
-      </c>
-      <c r="V39" t="n">
-        <v>18.68</v>
-      </c>
-      <c r="W39" t="n">
-        <v>38.21</v>
-      </c>
-      <c r="X39" t="n">
-        <v>24.67</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>72.64999999999999</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>1.756666666666667</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>12.19</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>202</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="R40" t="n">
-        <v>78.31506855412293</v>
-      </c>
-      <c r="S40" t="n">
-        <v>89.10333333333334</v>
-      </c>
-      <c r="T40" t="n">
-        <v>65.38</v>
-      </c>
-      <c r="U40" t="n">
-        <v>3.263333333333333</v>
-      </c>
-      <c r="V40" t="n">
-        <v>25.31666666666667</v>
-      </c>
-      <c r="W40" t="n">
-        <v>63.42666666666667</v>
-      </c>
-      <c r="X40" t="n">
-        <v>41.21666666666667</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>73.07666666666667</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>12.89333333333333</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>203</v>
-      </c>
-      <c r="B41" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="R41" t="n">
-        <v>243.3667536473938</v>
-      </c>
-      <c r="S41" t="n">
-        <v>89.10333333333334</v>
-      </c>
-      <c r="T41" t="n">
-        <v>25.36666666666666</v>
-      </c>
-      <c r="U41" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="V41" t="n">
-        <v>26.89</v>
-      </c>
-      <c r="W41" t="n">
-        <v>49.82666666666666</v>
-      </c>
-      <c r="X41" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>8.333333333333334</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>1.073333333333333</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>0.3166666666666667</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>207</v>
-      </c>
-      <c r="B42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="R42" t="n">
-        <v>129.1366552987812</v>
-      </c>
-      <c r="S42" t="n">
-        <v>81.41000000000001</v>
-      </c>
-      <c r="T42" t="n">
-        <v>37.09333333333333</v>
-      </c>
-      <c r="U42" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="V42" t="n">
-        <v>20.87</v>
-      </c>
-      <c r="W42" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="X42" t="n">
-        <v>50.46</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>78.63</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>3.283333333333333</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>14.18</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>208</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>1</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>1</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="R43" t="n">
-        <v>171.6373026511451</v>
-      </c>
-      <c r="S43" t="n">
-        <v>75.42666666666666</v>
-      </c>
-      <c r="T43" t="n">
-        <v>20.71333333333333</v>
-      </c>
-      <c r="U43" t="n">
-        <v>2.933333333333333</v>
-      </c>
-      <c r="V43" t="n">
-        <v>19.41333333333333</v>
-      </c>
-      <c r="W43" t="n">
-        <v>49.80333333333333</v>
-      </c>
-      <c r="X43" t="n">
-        <v>28.74</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>43.16</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>1.343333333333333</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>5.553333333333334</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>209</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>1</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="R44" t="n">
-        <v>114.4400744596022</v>
-      </c>
-      <c r="S44" t="n">
-        <v>86.54000000000001</v>
-      </c>
-      <c r="T44" t="n">
-        <v>41.13</v>
-      </c>
-      <c r="U44" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="V44" t="n">
-        <v>23.51666666666667</v>
-      </c>
-      <c r="W44" t="n">
-        <v>41.72333333333334</v>
-      </c>
-      <c r="X44" t="n">
-        <v>13.53666666666667</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>65.17333333333333</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>3.496666666666667</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>6.436666666666667</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>211</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1</v>
-      </c>
-      <c r="P45" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="R45" t="n">
-        <v>76.62784007817504</v>
-      </c>
-      <c r="S45" t="n">
-        <v>89.32000000000001</v>
-      </c>
-      <c r="T45" t="n">
-        <v>75.20666666666666</v>
-      </c>
-      <c r="U45" t="n">
-        <v>3.203333333333333</v>
-      </c>
-      <c r="V45" t="n">
-        <v>22.21666666666667</v>
-      </c>
-      <c r="W45" t="n">
-        <v>103.6733333333333</v>
-      </c>
-      <c r="X45" t="n">
-        <v>57.23333333333334</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>54.48666666666667</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>3.116666666666667</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>9.916666666666666</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>217</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="R46" t="n">
-        <v>169.8781111790316</v>
-      </c>
-      <c r="S46" t="n">
-        <v>86.54000000000001</v>
-      </c>
-      <c r="T46" t="n">
-        <v>31.52</v>
-      </c>
-      <c r="U46" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="V46" t="n">
-        <v>24.16333333333334</v>
-      </c>
-      <c r="W46" t="n">
-        <v>37.22666666666667</v>
-      </c>
-      <c r="X46" t="n">
-        <v>5.183333333333334</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>21.58333333333333</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>0.8366666666666668</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>218</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="R47" t="n">
-        <v>268.290334995816</v>
-      </c>
-      <c r="S47" t="n">
-        <v>86.32666666666667</v>
-      </c>
-      <c r="T47" t="n">
-        <v>15.60333333333333</v>
-      </c>
-      <c r="U47" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="V47" t="n">
-        <v>19.88</v>
-      </c>
-      <c r="W47" t="n">
-        <v>31.57</v>
-      </c>
-      <c r="X47" t="n">
-        <v>18.54666666666667</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>32.48</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>2.303333333333333</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>4.776666666666666</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>130</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>1</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="R48" t="n">
-        <v>2086.40376782129</v>
-      </c>
-      <c r="S48" t="n">
-        <v>16.66666666666667</v>
-      </c>
-      <c r="T48" t="n">
-        <v>0.9933333333333333</v>
-      </c>
-      <c r="U48" t="n">
-        <v>2.013333333333333</v>
-      </c>
-      <c r="V48" t="n">
-        <v>7.936666666666667</v>
-      </c>
-      <c r="W48" t="n">
-        <v>24.58333333333333</v>
-      </c>
-      <c r="X48" t="n">
-        <v>34.76333333333334</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>86.75333333333333</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>2.423333333333333</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>18.88333333333334</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>145</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="n">
-        <v>1</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="R49" t="n">
-        <v>226.5371191306247</v>
-      </c>
-      <c r="S49" t="n">
-        <v>73.50666666666667</v>
-      </c>
-      <c r="T49" t="n">
-        <v>25.75</v>
-      </c>
-      <c r="U49" t="n">
-        <v>3.363333333333333</v>
-      </c>
-      <c r="V49" t="n">
-        <v>28.48666666666667</v>
-      </c>
-      <c r="W49" t="n">
-        <v>46.66333333333333</v>
-      </c>
-      <c r="X49" t="n">
-        <v>21.61666666666666</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>9.220000000000001</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>178</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="n">
-        <v>1</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="R50" t="n">
-        <v>119.9932111900186</v>
-      </c>
-      <c r="S50" t="n">
-        <v>75.43000000000001</v>
-      </c>
-      <c r="T50" t="n">
-        <v>46.69666666666667</v>
-      </c>
-      <c r="U50" t="n">
-        <v>3.083333333333333</v>
-      </c>
-      <c r="V50" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="W50" t="n">
-        <v>78.55333333333333</v>
-      </c>
-      <c r="X50" t="n">
-        <v>62.32333333333333</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>62.82</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>2.716666666666667</v>
-      </c>
-      <c r="AA50" t="n">
         <v>7.156666666666666</v>
       </c>
     </row>
@@ -4650,7 +3488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA44"/>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4746,7 +3584,7 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>GatesT_coldread_stopwatch_wpm</t>
+          <t>GatesT_coldread_gaze_wpm_median</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
@@ -4848,7 +3686,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="R2" t="n">
-        <v>205.7646407612174</v>
+        <v>53.3010531997563</v>
       </c>
       <c r="S2" t="n">
         <v>78.09000000000002</v>
@@ -4880,7 +3718,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -4913,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
@@ -4925,45 +3763,45 @@
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="R3" t="n">
-        <v>259.5850893840605</v>
+        <v>155.5266590671547</v>
       </c>
       <c r="S3" t="n">
-        <v>52.91666666666666</v>
+        <v>84.14999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>21.56</v>
+        <v>16.67333333333334</v>
       </c>
       <c r="U3" t="n">
-        <v>3.003333333333333</v>
+        <v>3.16</v>
       </c>
       <c r="V3" t="n">
-        <v>14.39</v>
+        <v>28.97333333333333</v>
       </c>
       <c r="W3" t="n">
-        <v>78.02333333333333</v>
+        <v>35.3</v>
       </c>
       <c r="X3" t="n">
-        <v>84.24333333333333</v>
+        <v>2.69</v>
       </c>
       <c r="Y3" t="n">
-        <v>83.68333333333334</v>
+        <v>23.07666666666667</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.506666666666667</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA3" t="n">
-        <v>10.82333333333333</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -4978,7 +3816,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -4990,7 +3828,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4999,10 +3837,10 @@
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
@@ -5014,45 +3852,45 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="R4" t="n">
-        <v>212.1896668462805</v>
+        <v>95.44657267239542</v>
       </c>
       <c r="S4" t="n">
-        <v>84.14999999999999</v>
+        <v>91.84333333333332</v>
       </c>
       <c r="T4" t="n">
-        <v>16.67333333333334</v>
+        <v>103.9333333333333</v>
       </c>
       <c r="U4" t="n">
-        <v>3.16</v>
+        <v>2.946666666666667</v>
       </c>
       <c r="V4" t="n">
-        <v>28.97333333333333</v>
+        <v>25.34</v>
       </c>
       <c r="W4" t="n">
-        <v>35.3</v>
+        <v>77.33</v>
       </c>
       <c r="X4" t="n">
-        <v>2.69</v>
+        <v>36.77333333333333</v>
       </c>
       <c r="Y4" t="n">
-        <v>23.07666666666667</v>
+        <v>84.61666666666667</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.8300000000000001</v>
+        <v>2.926666666666667</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.51</v>
+        <v>10.46333333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -5085,57 +3923,57 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="R5" t="n">
-        <v>58.44242782775126</v>
+        <v>135.0977026887813</v>
       </c>
       <c r="S5" t="n">
-        <v>91.84333333333332</v>
+        <v>89.74666666666667</v>
       </c>
       <c r="T5" t="n">
-        <v>103.9333333333333</v>
+        <v>36.58000000000001</v>
       </c>
       <c r="U5" t="n">
-        <v>2.946666666666667</v>
+        <v>3.67</v>
       </c>
       <c r="V5" t="n">
-        <v>25.34</v>
+        <v>16.85</v>
       </c>
       <c r="W5" t="n">
-        <v>77.33</v>
+        <v>67.11333333333333</v>
       </c>
       <c r="X5" t="n">
-        <v>36.77333333333333</v>
+        <v>43.97333333333334</v>
       </c>
       <c r="Y5" t="n">
-        <v>84.61666666666667</v>
+        <v>86.25</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.926666666666667</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="AA5" t="n">
-        <v>10.46333333333333</v>
+        <v>12.26666666666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -5144,10 +3982,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -5159,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -5174,51 +4012,51 @@
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="R6" t="n">
-        <v>231.805747239085</v>
+        <v>125.9221665995303</v>
       </c>
       <c r="S6" t="n">
-        <v>77.62333333333333</v>
+        <v>84.14999999999999</v>
       </c>
       <c r="T6" t="n">
-        <v>47.51</v>
+        <v>39</v>
       </c>
       <c r="U6" t="n">
-        <v>3.616666666666667</v>
+        <v>3.363333333333333</v>
       </c>
       <c r="V6" t="n">
-        <v>19.57</v>
+        <v>19.15666666666667</v>
       </c>
       <c r="W6" t="n">
-        <v>68.03666666666666</v>
+        <v>46.33333333333334</v>
       </c>
       <c r="X6" t="n">
-        <v>39.07</v>
+        <v>34.57666666666667</v>
       </c>
       <c r="Y6" t="n">
-        <v>81.12</v>
+        <v>78.09000000000002</v>
       </c>
       <c r="Z6" t="n">
-        <v>3.263333333333333</v>
+        <v>3.296666666666667</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.186666666666666</v>
+        <v>13.87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -5227,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -5239,63 +4077,63 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="R7" t="n">
-        <v>128.8748934157832</v>
+        <v>107.3922454210235</v>
       </c>
       <c r="S7" t="n">
-        <v>89.74666666666667</v>
+        <v>91.37666666666667</v>
       </c>
       <c r="T7" t="n">
-        <v>36.58000000000001</v>
+        <v>48.53333333333334</v>
       </c>
       <c r="U7" t="n">
-        <v>3.67</v>
+        <v>4.366666666666666</v>
       </c>
       <c r="V7" t="n">
-        <v>16.85</v>
+        <v>19.02333333333333</v>
       </c>
       <c r="W7" t="n">
-        <v>67.11333333333333</v>
+        <v>63.78333333333333</v>
       </c>
       <c r="X7" t="n">
-        <v>43.97333333333334</v>
+        <v>36.16666666666666</v>
       </c>
       <c r="Y7" t="n">
-        <v>86.25</v>
+        <v>48.71666666666667</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.083333333333333</v>
+        <v>1.806666666666667</v>
       </c>
       <c r="AA7" t="n">
-        <v>12.26666666666667</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -5325,10 +4163,10 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -5337,48 +4175,48 @@
         <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R8" t="n">
-        <v>127.7764878245353</v>
+        <v>115.7467393631937</v>
       </c>
       <c r="S8" t="n">
-        <v>84.14999999999999</v>
+        <v>94.87333333333333</v>
       </c>
       <c r="T8" t="n">
-        <v>39</v>
+        <v>62.49333333333334</v>
       </c>
       <c r="U8" t="n">
-        <v>3.363333333333333</v>
+        <v>3.373333333333333</v>
       </c>
       <c r="V8" t="n">
-        <v>19.15666666666667</v>
+        <v>23.96333333333333</v>
       </c>
       <c r="W8" t="n">
-        <v>46.33333333333334</v>
+        <v>58.08333333333334</v>
       </c>
       <c r="X8" t="n">
-        <v>34.57666666666667</v>
+        <v>81.76666666666667</v>
       </c>
       <c r="Y8" t="n">
-        <v>78.09000000000002</v>
+        <v>80.65333333333335</v>
       </c>
       <c r="Z8" t="n">
-        <v>3.296666666666667</v>
+        <v>2.796666666666667</v>
       </c>
       <c r="AA8" t="n">
-        <v>13.87</v>
+        <v>11.10333333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -5402,16 +4240,16 @@
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -5420,48 +4258,48 @@
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R9" t="n">
-        <v>104.6906813433834</v>
+        <v>208.0432852467581</v>
       </c>
       <c r="S9" t="n">
-        <v>91.37666666666667</v>
+        <v>86.71333333333332</v>
       </c>
       <c r="T9" t="n">
-        <v>48.53333333333334</v>
+        <v>26.19666666666667</v>
       </c>
       <c r="U9" t="n">
-        <v>4.366666666666666</v>
+        <v>3.39</v>
       </c>
       <c r="V9" t="n">
-        <v>19.02333333333333</v>
+        <v>19.18333333333333</v>
       </c>
       <c r="W9" t="n">
-        <v>63.78333333333333</v>
+        <v>96.52666666666666</v>
       </c>
       <c r="X9" t="n">
-        <v>36.16666666666666</v>
+        <v>118.71</v>
       </c>
       <c r="Y9" t="n">
-        <v>48.71666666666667</v>
+        <v>89.28000000000002</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.806666666666667</v>
+        <v>2.906666666666666</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.43</v>
+        <v>15.20333333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -5476,7 +4314,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -5491,63 +4329,63 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="R10" t="n">
-        <v>79.12270766565972</v>
+        <v>69.68938014165907</v>
       </c>
       <c r="S10" t="n">
-        <v>94.87333333333333</v>
+        <v>89.28000000000002</v>
       </c>
       <c r="T10" t="n">
-        <v>62.49333333333334</v>
+        <v>58.15333333333333</v>
       </c>
       <c r="U10" t="n">
-        <v>3.373333333333333</v>
+        <v>3.556666666666667</v>
       </c>
       <c r="V10" t="n">
-        <v>23.96333333333333</v>
+        <v>29.35666666666667</v>
       </c>
       <c r="W10" t="n">
-        <v>58.08333333333334</v>
+        <v>36.38333333333333</v>
       </c>
       <c r="X10" t="n">
-        <v>81.76666666666667</v>
+        <v>19.38333333333334</v>
       </c>
       <c r="Y10" t="n">
-        <v>80.65333333333335</v>
+        <v>62.70666666666667</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.796666666666667</v>
+        <v>3.09</v>
       </c>
       <c r="AA10" t="n">
-        <v>11.10333333333333</v>
+        <v>11.44666666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -5556,13 +4394,13 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -5574,10 +4412,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -5586,48 +4424,48 @@
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="R11" t="n">
-        <v>258.0789377339176</v>
+        <v>96.25924396095847</v>
       </c>
       <c r="S11" t="n">
-        <v>86.71333333333332</v>
+        <v>79.48999999999999</v>
       </c>
       <c r="T11" t="n">
-        <v>26.19666666666667</v>
+        <v>48.88666666666666</v>
       </c>
       <c r="U11" t="n">
-        <v>3.39</v>
+        <v>3.65</v>
       </c>
       <c r="V11" t="n">
-        <v>19.18333333333333</v>
+        <v>19.90333333333333</v>
       </c>
       <c r="W11" t="n">
-        <v>96.52666666666666</v>
+        <v>57.21666666666667</v>
       </c>
       <c r="X11" t="n">
-        <v>118.71</v>
+        <v>17.58333333333333</v>
       </c>
       <c r="Y11" t="n">
-        <v>89.28000000000002</v>
+        <v>83.68666666666667</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.906666666666666</v>
+        <v>3.12</v>
       </c>
       <c r="AA11" t="n">
-        <v>15.20333333333333</v>
+        <v>10.13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -5669,48 +4507,48 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0.6</v>
       </c>
       <c r="R12" t="n">
-        <v>107.0792877563653</v>
+        <v>103.5905196688556</v>
       </c>
       <c r="S12" t="n">
-        <v>89.28000000000002</v>
+        <v>72.49666666666667</v>
       </c>
       <c r="T12" t="n">
-        <v>58.15333333333333</v>
+        <v>32.86666666666667</v>
       </c>
       <c r="U12" t="n">
-        <v>3.556666666666667</v>
+        <v>3.28</v>
       </c>
       <c r="V12" t="n">
-        <v>29.35666666666667</v>
+        <v>20.79666666666667</v>
       </c>
       <c r="W12" t="n">
-        <v>36.38333333333333</v>
+        <v>52.05333333333333</v>
       </c>
       <c r="X12" t="n">
-        <v>19.38333333333334</v>
+        <v>63.81666666666666</v>
       </c>
       <c r="Y12" t="n">
-        <v>62.70666666666667</v>
+        <v>61.77333333333333</v>
       </c>
       <c r="Z12" t="n">
-        <v>3.09</v>
+        <v>2.656666666666666</v>
       </c>
       <c r="AA12" t="n">
-        <v>11.44666666666667</v>
+        <v>14.52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -5722,13 +4560,13 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -5746,10 +4584,10 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -5758,48 +4596,48 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R13" t="n">
-        <v>87.35975812862698</v>
+        <v>168.4591379984669</v>
       </c>
       <c r="S13" t="n">
-        <v>79.48999999999999</v>
+        <v>89.27666666666666</v>
       </c>
       <c r="T13" t="n">
-        <v>48.88666666666666</v>
+        <v>50.15666666666667</v>
       </c>
       <c r="U13" t="n">
-        <v>3.65</v>
+        <v>3.703333333333333</v>
       </c>
       <c r="V13" t="n">
-        <v>19.90333333333333</v>
+        <v>13.97</v>
       </c>
       <c r="W13" t="n">
-        <v>57.21666666666667</v>
+        <v>89.48666666666668</v>
       </c>
       <c r="X13" t="n">
-        <v>17.58333333333333</v>
+        <v>49.03333333333333</v>
       </c>
       <c r="Y13" t="n">
         <v>83.68666666666667</v>
       </c>
       <c r="Z13" t="n">
-        <v>3.12</v>
+        <v>2.86</v>
       </c>
       <c r="AA13" t="n">
-        <v>10.13</v>
+        <v>9.960000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -5811,13 +4649,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -5826,10 +4664,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -5841,48 +4679,48 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="R14" t="n">
-        <v>245.198878359072</v>
+        <v>149.7192372159853</v>
       </c>
       <c r="S14" t="n">
-        <v>57.57666666666668</v>
+        <v>97.43666666666667</v>
       </c>
       <c r="T14" t="n">
-        <v>15.71333333333333</v>
+        <v>61.29</v>
       </c>
       <c r="U14" t="n">
-        <v>3.006666666666666</v>
+        <v>3.566666666666666</v>
       </c>
       <c r="V14" t="n">
-        <v>22.37</v>
+        <v>16.39333333333333</v>
       </c>
       <c r="W14" t="n">
-        <v>58.48666666666666</v>
+        <v>100.3166666666667</v>
       </c>
       <c r="X14" t="n">
-        <v>30.97</v>
+        <v>40.23666666666667</v>
       </c>
       <c r="Y14" t="n">
-        <v>67.83333333333333</v>
+        <v>72.03000000000002</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.22</v>
+        <v>2.82</v>
       </c>
       <c r="AA14" t="n">
-        <v>10.74666666666667</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -5900,69 +4738,69 @@
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="R15" t="n">
-        <v>137.0006866956971</v>
+        <v>103.7778087010638</v>
       </c>
       <c r="S15" t="n">
-        <v>72.49666666666667</v>
+        <v>88.81333333333333</v>
       </c>
       <c r="T15" t="n">
-        <v>32.86666666666667</v>
+        <v>42.32</v>
       </c>
       <c r="U15" t="n">
-        <v>3.28</v>
+        <v>3.34</v>
       </c>
       <c r="V15" t="n">
-        <v>20.79666666666667</v>
+        <v>21.07333333333333</v>
       </c>
       <c r="W15" t="n">
-        <v>52.05333333333333</v>
+        <v>74.43666666666665</v>
       </c>
       <c r="X15" t="n">
-        <v>63.81666666666666</v>
+        <v>33.39666666666667</v>
       </c>
       <c r="Y15" t="n">
-        <v>61.77333333333333</v>
+        <v>79.02</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.656666666666666</v>
+        <v>3.206666666666667</v>
       </c>
       <c r="AA15" t="n">
-        <v>14.52</v>
+        <v>9.973333333333334</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -5974,25 +4812,25 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
@@ -6001,72 +4839,72 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="R16" t="n">
-        <v>117.5732618564442</v>
+        <v>86.95467315343372</v>
       </c>
       <c r="S16" t="n">
-        <v>89.27666666666666</v>
+        <v>69.23</v>
       </c>
       <c r="T16" t="n">
-        <v>50.15666666666667</v>
+        <v>76.05333333333333</v>
       </c>
       <c r="U16" t="n">
-        <v>3.703333333333333</v>
+        <v>3.183333333333334</v>
       </c>
       <c r="V16" t="n">
-        <v>13.97</v>
+        <v>25.51666666666667</v>
       </c>
       <c r="W16" t="n">
-        <v>89.48666666666668</v>
+        <v>102.9666666666667</v>
       </c>
       <c r="X16" t="n">
-        <v>49.03333333333333</v>
+        <v>56.8</v>
       </c>
       <c r="Y16" t="n">
-        <v>83.68666666666667</v>
+        <v>74.35666666666667</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.86</v>
+        <v>1.923333333333333</v>
       </c>
       <c r="AA16" t="n">
-        <v>9.960000000000001</v>
+        <v>11.53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -6075,63 +4913,63 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R17" t="n">
-        <v>93.27700747777317</v>
+        <v>132.3564389119494</v>
       </c>
       <c r="S17" t="n">
-        <v>97.43666666666667</v>
+        <v>89.28000000000002</v>
       </c>
       <c r="T17" t="n">
-        <v>61.29</v>
+        <v>44.35</v>
       </c>
       <c r="U17" t="n">
-        <v>3.566666666666666</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="V17" t="n">
-        <v>16.39333333333333</v>
+        <v>23.97333333333333</v>
       </c>
       <c r="W17" t="n">
-        <v>100.3166666666667</v>
+        <v>43.09</v>
       </c>
       <c r="X17" t="n">
-        <v>40.23666666666667</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="Y17" t="n">
-        <v>72.03000000000002</v>
+        <v>28.20666666666667</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.82</v>
+        <v>1.116666666666667</v>
       </c>
       <c r="AA17" t="n">
-        <v>9.19</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -6143,22 +4981,22 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
@@ -6167,48 +5005,48 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R18" t="n">
-        <v>115.8180248214024</v>
+        <v>147.3265792918211</v>
       </c>
       <c r="S18" t="n">
-        <v>88.81333333333333</v>
+        <v>81.58666666666666</v>
       </c>
       <c r="T18" t="n">
-        <v>42.32</v>
+        <v>100.99</v>
       </c>
       <c r="U18" t="n">
-        <v>3.34</v>
+        <v>2.863333333333333</v>
       </c>
       <c r="V18" t="n">
-        <v>21.07333333333333</v>
+        <v>25.34666666666667</v>
       </c>
       <c r="W18" t="n">
-        <v>74.43666666666665</v>
+        <v>7.536666666666666</v>
       </c>
       <c r="X18" t="n">
-        <v>33.39666666666667</v>
+        <v>3.79</v>
       </c>
       <c r="Y18" t="n">
-        <v>79.02</v>
+        <v>25.64</v>
       </c>
       <c r="Z18" t="n">
-        <v>3.206666666666667</v>
+        <v>0.82</v>
       </c>
       <c r="AA18" t="n">
-        <v>9.973333333333334</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -6217,13 +5055,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -6238,63 +5076,63 @@
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R19" t="n">
-        <v>205.1828050638228</v>
+        <v>150.9220485141944</v>
       </c>
       <c r="S19" t="n">
-        <v>84.14999999999999</v>
+        <v>89.28000000000002</v>
       </c>
       <c r="T19" t="n">
-        <v>22.45</v>
+        <v>57.37</v>
       </c>
       <c r="U19" t="n">
-        <v>3.94</v>
+        <v>3.146666666666667</v>
       </c>
       <c r="V19" t="n">
-        <v>20.78666666666667</v>
+        <v>22.88</v>
       </c>
       <c r="W19" t="n">
-        <v>50.39000000000001</v>
+        <v>46.28666666666667</v>
       </c>
       <c r="X19" t="n">
-        <v>16.84333333333333</v>
+        <v>14.09</v>
       </c>
       <c r="Y19" t="n">
-        <v>88.81333333333333</v>
+        <v>49.18666666666667</v>
       </c>
       <c r="Z19" t="n">
-        <v>3.336666666666666</v>
+        <v>2.513333333333333</v>
       </c>
       <c r="AA19" t="n">
-        <v>7.710000000000001</v>
+        <v>6.960000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -6306,7 +5144,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -6318,13 +5156,13 @@
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
@@ -6333,57 +5171,57 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="R20" t="n">
-        <v>63.23725328470508</v>
+        <v>94.32341472751109</v>
       </c>
       <c r="S20" t="n">
-        <v>69.23</v>
+        <v>86.25</v>
       </c>
       <c r="T20" t="n">
-        <v>76.05333333333333</v>
+        <v>43.65333333333334</v>
       </c>
       <c r="U20" t="n">
-        <v>3.183333333333334</v>
+        <v>3.626666666666667</v>
       </c>
       <c r="V20" t="n">
-        <v>25.51666666666667</v>
+        <v>18.5</v>
       </c>
       <c r="W20" t="n">
-        <v>102.9666666666667</v>
+        <v>70.67333333333333</v>
       </c>
       <c r="X20" t="n">
-        <v>56.8</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="Y20" t="n">
-        <v>74.35666666666667</v>
+        <v>7.693333333333332</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.923333333333333</v>
+        <v>2.59</v>
       </c>
       <c r="AA20" t="n">
-        <v>11.53</v>
+        <v>0.7933333333333333</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -6392,13 +5230,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -6407,63 +5245,63 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="R21" t="n">
-        <v>108.731661828926</v>
+        <v>35.31618486602864</v>
       </c>
       <c r="S21" t="n">
-        <v>89.28000000000002</v>
+        <v>59.67333333333332</v>
       </c>
       <c r="T21" t="n">
-        <v>44.35</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="U21" t="n">
-        <v>3.083333333333333</v>
+        <v>2.766666666666667</v>
       </c>
       <c r="V21" t="n">
-        <v>23.97333333333333</v>
+        <v>9.143333333333333</v>
       </c>
       <c r="W21" t="n">
-        <v>43.09</v>
+        <v>52.47666666666667</v>
       </c>
       <c r="X21" t="n">
-        <v>5.916666666666667</v>
+        <v>14.01666666666667</v>
       </c>
       <c r="Y21" t="n">
-        <v>28.20666666666667</v>
+        <v>67.83333333333333</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.116666666666667</v>
+        <v>2.55</v>
       </c>
       <c r="AA21" t="n">
-        <v>4.22</v>
+        <v>12.56666666666667</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -6475,7 +5313,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -6490,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
@@ -6502,51 +5340,51 @@
         <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="R22" t="n">
-        <v>63.64907754984552</v>
+        <v>205.6755835469466</v>
       </c>
       <c r="S22" t="n">
-        <v>81.58666666666666</v>
+        <v>92.31</v>
       </c>
       <c r="T22" t="n">
-        <v>100.99</v>
+        <v>18.94666666666667</v>
       </c>
       <c r="U22" t="n">
-        <v>2.863333333333333</v>
+        <v>3.82</v>
       </c>
       <c r="V22" t="n">
-        <v>25.34666666666667</v>
+        <v>20.38</v>
       </c>
       <c r="W22" t="n">
-        <v>7.536666666666666</v>
+        <v>54.88666666666666</v>
       </c>
       <c r="X22" t="n">
-        <v>3.79</v>
+        <v>55.25333333333333</v>
       </c>
       <c r="Y22" t="n">
-        <v>25.64</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.82</v>
+        <v>3.526666666666667</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.96</v>
+        <v>14.69</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -6570,13 +5408,13 @@
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -6585,51 +5423,51 @@
         <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="R23" t="n">
-        <v>224.0723945247516</v>
+        <v>129.5823648661931</v>
       </c>
       <c r="S23" t="n">
-        <v>40.32333333333333</v>
+        <v>92.31</v>
       </c>
       <c r="T23" t="n">
-        <v>36.19</v>
+        <v>52.41333333333333</v>
       </c>
       <c r="U23" t="n">
-        <v>3.773333333333333</v>
+        <v>2.803333333333333</v>
       </c>
       <c r="V23" t="n">
-        <v>21.76</v>
+        <v>23.87333333333333</v>
       </c>
       <c r="W23" t="n">
-        <v>62.11666666666667</v>
+        <v>43.18333333333333</v>
       </c>
       <c r="X23" t="n">
-        <v>101.3666666666667</v>
+        <v>8.93</v>
       </c>
       <c r="Y23" t="n">
-        <v>86.71666666666665</v>
+        <v>51.04999999999999</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.846666666666667</v>
+        <v>3.14</v>
       </c>
       <c r="AA23" t="n">
-        <v>19.42333333333333</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -6659,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -6671,45 +5509,45 @@
         <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5380288528101</v>
+        <v>155.6279332811391</v>
       </c>
       <c r="S24" t="n">
-        <v>89.28000000000002</v>
+        <v>73.89333333333333</v>
       </c>
       <c r="T24" t="n">
-        <v>57.37</v>
+        <v>17.69</v>
       </c>
       <c r="U24" t="n">
-        <v>3.146666666666667</v>
+        <v>3.463333333333333</v>
       </c>
       <c r="V24" t="n">
-        <v>22.88</v>
+        <v>24.64333333333333</v>
       </c>
       <c r="W24" t="n">
-        <v>46.28666666666667</v>
+        <v>70.79333333333334</v>
       </c>
       <c r="X24" t="n">
-        <v>14.09</v>
+        <v>28.49333333333334</v>
       </c>
       <c r="Y24" t="n">
-        <v>49.18666666666667</v>
+        <v>83.22000000000001</v>
       </c>
       <c r="Z24" t="n">
-        <v>2.513333333333333</v>
+        <v>2.353333333333333</v>
       </c>
       <c r="AA24" t="n">
-        <v>6.960000000000001</v>
+        <v>11.56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -6721,10 +5559,10 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -6733,13 +5571,13 @@
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
@@ -6751,51 +5589,51 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.4</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="R25" t="n">
-        <v>127.1713302703997</v>
+        <v>163.2506066903906</v>
       </c>
       <c r="S25" t="n">
-        <v>86.25</v>
+        <v>96.96999999999998</v>
       </c>
       <c r="T25" t="n">
-        <v>43.65333333333334</v>
+        <v>57.92333333333334</v>
       </c>
       <c r="U25" t="n">
-        <v>3.626666666666667</v>
+        <v>3.236666666666667</v>
       </c>
       <c r="V25" t="n">
-        <v>18.5</v>
+        <v>19.70666666666667</v>
       </c>
       <c r="W25" t="n">
-        <v>70.67333333333333</v>
+        <v>47.21666666666667</v>
       </c>
       <c r="X25" t="n">
-        <v>0.9400000000000001</v>
+        <v>18.23</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.693333333333332</v>
+        <v>66.43333333333334</v>
       </c>
       <c r="Z25" t="n">
-        <v>2.59</v>
+        <v>3.383333333333333</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.7933333333333333</v>
+        <v>5.666666666666667</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -6804,16 +5642,16 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -6822,63 +5660,63 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>1</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="R26" t="n">
-        <v>99.53739829300321</v>
+        <v>164.6459979404014</v>
       </c>
       <c r="S26" t="n">
-        <v>59.67333333333332</v>
+        <v>84.14999999999999</v>
       </c>
       <c r="T26" t="n">
-        <v>14.16666666666667</v>
+        <v>17.33</v>
       </c>
       <c r="U26" t="n">
-        <v>2.766666666666667</v>
+        <v>3.200000000000001</v>
       </c>
       <c r="V26" t="n">
-        <v>9.143333333333333</v>
+        <v>28.67333333333334</v>
       </c>
       <c r="W26" t="n">
-        <v>52.47666666666667</v>
+        <v>20.79666666666667</v>
       </c>
       <c r="X26" t="n">
-        <v>14.01666666666667</v>
+        <v>44.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>67.83333333333333</v>
+        <v>73.42999999999999</v>
       </c>
       <c r="Z26" t="n">
-        <v>2.55</v>
+        <v>2.263333333333333</v>
       </c>
       <c r="AA26" t="n">
-        <v>12.56666666666667</v>
+        <v>13.86333333333334</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -6899,7 +5737,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -6914,66 +5752,66 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R27" t="n">
-        <v>267.26916212802</v>
+        <v>135.9002410446051</v>
       </c>
       <c r="S27" t="n">
-        <v>92.31</v>
+        <v>81.12</v>
       </c>
       <c r="T27" t="n">
-        <v>18.94666666666667</v>
+        <v>30.37</v>
       </c>
       <c r="U27" t="n">
-        <v>3.82</v>
+        <v>2.92</v>
       </c>
       <c r="V27" t="n">
-        <v>20.38</v>
+        <v>21.64666666666666</v>
       </c>
       <c r="W27" t="n">
-        <v>54.88666666666666</v>
+        <v>48.30333333333333</v>
       </c>
       <c r="X27" t="n">
-        <v>55.25333333333333</v>
+        <v>34.57</v>
       </c>
       <c r="Y27" t="n">
-        <v>87.18000000000001</v>
+        <v>86.71333333333332</v>
       </c>
       <c r="Z27" t="n">
-        <v>3.526666666666667</v>
+        <v>2.723333333333333</v>
       </c>
       <c r="AA27" t="n">
-        <v>14.69</v>
+        <v>15.46666666666667</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -6985,60 +5823,60 @@
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="R28" t="n">
-        <v>94.08368131971555</v>
+        <v>109.0612535156631</v>
       </c>
       <c r="S28" t="n">
-        <v>92.31</v>
+        <v>86.71333333333332</v>
       </c>
       <c r="T28" t="n">
-        <v>52.41333333333333</v>
+        <v>29.49666666666667</v>
       </c>
       <c r="U28" t="n">
-        <v>2.803333333333333</v>
+        <v>3.153333333333334</v>
       </c>
       <c r="V28" t="n">
-        <v>23.87333333333333</v>
+        <v>29.02666666666667</v>
       </c>
       <c r="W28" t="n">
-        <v>43.18333333333333</v>
+        <v>37.21666666666667</v>
       </c>
       <c r="X28" t="n">
-        <v>8.93</v>
+        <v>14.76666666666667</v>
       </c>
       <c r="Y28" t="n">
-        <v>51.04999999999999</v>
+        <v>62.70666666666667</v>
       </c>
       <c r="Z28" t="n">
-        <v>3.14</v>
+        <v>2.513333333333333</v>
       </c>
       <c r="AA28" t="n">
-        <v>6.02</v>
+        <v>12.41666666666667</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -7053,7 +5891,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -7062,7 +5900,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -7071,72 +5909,72 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="R29" t="n">
-        <v>485.1967055525676</v>
+        <v>91.98772371371275</v>
       </c>
       <c r="S29" t="n">
-        <v>33.33333333333334</v>
+        <v>86.71333333333332</v>
       </c>
       <c r="T29" t="n">
-        <v>13.87666666666667</v>
+        <v>50.68666666666667</v>
       </c>
       <c r="U29" t="n">
-        <v>2.943333333333333</v>
+        <v>2.716666666666667</v>
       </c>
       <c r="V29" t="n">
-        <v>6.25</v>
+        <v>22.42666666666667</v>
       </c>
       <c r="W29" t="n">
-        <v>22.00666666666667</v>
+        <v>44.40666666666667</v>
       </c>
       <c r="X29" t="n">
-        <v>15.35666666666667</v>
+        <v>16.18</v>
       </c>
       <c r="Y29" t="n">
-        <v>55.71</v>
+        <v>57.11000000000001</v>
       </c>
       <c r="Z29" t="n">
-        <v>2.463333333333333</v>
+        <v>2.35</v>
       </c>
       <c r="AA29" t="n">
-        <v>10.72666666666667</v>
+        <v>5.516666666666667</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -7154,7 +5992,7 @@
         <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
@@ -7163,48 +6001,48 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.6</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="R30" t="n">
-        <v>201.9046513169943</v>
+        <v>219.3816466161754</v>
       </c>
       <c r="S30" t="n">
-        <v>73.89333333333333</v>
+        <v>97.43666666666667</v>
       </c>
       <c r="T30" t="n">
-        <v>17.69</v>
+        <v>23.66666666666667</v>
       </c>
       <c r="U30" t="n">
-        <v>3.463333333333333</v>
+        <v>4.08</v>
       </c>
       <c r="V30" t="n">
-        <v>24.64333333333333</v>
+        <v>27.17666666666667</v>
       </c>
       <c r="W30" t="n">
-        <v>70.79333333333334</v>
+        <v>36.98333333333333</v>
       </c>
       <c r="X30" t="n">
-        <v>28.49333333333334</v>
+        <v>19.65</v>
       </c>
       <c r="Y30" t="n">
-        <v>83.22000000000001</v>
+        <v>74.59666666666668</v>
       </c>
       <c r="Z30" t="n">
-        <v>2.353333333333333</v>
+        <v>3.973333333333333</v>
       </c>
       <c r="AA30" t="n">
-        <v>11.56</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -7222,22 +6060,22 @@
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
@@ -7246,54 +6084,54 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="R31" t="n">
-        <v>66.05121164117335</v>
+        <v>99.71740380142755</v>
       </c>
       <c r="S31" t="n">
-        <v>96.96999999999998</v>
+        <v>89.74333333333334</v>
       </c>
       <c r="T31" t="n">
-        <v>57.92333333333334</v>
+        <v>38.03666666666667</v>
       </c>
       <c r="U31" t="n">
-        <v>3.236666666666667</v>
+        <v>3.76</v>
       </c>
       <c r="V31" t="n">
-        <v>19.70666666666667</v>
+        <v>20.45333333333333</v>
       </c>
       <c r="W31" t="n">
-        <v>47.21666666666667</v>
+        <v>53.76333333333334</v>
       </c>
       <c r="X31" t="n">
-        <v>18.23</v>
+        <v>35.15333333333334</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.43333333333334</v>
+        <v>72.96333333333334</v>
       </c>
       <c r="Z31" t="n">
-        <v>3.383333333333333</v>
+        <v>2.586666666666666</v>
       </c>
       <c r="AA31" t="n">
-        <v>5.666666666666667</v>
+        <v>9.093333333333334</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -7302,7 +6140,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -7338,39 +6176,39 @@
         <v>0.8</v>
       </c>
       <c r="R32" t="n">
-        <v>161.4216268678416</v>
+        <v>106.8903501911931</v>
       </c>
       <c r="S32" t="n">
-        <v>84.14999999999999</v>
+        <v>91.84333333333332</v>
       </c>
       <c r="T32" t="n">
-        <v>17.33</v>
+        <v>51.38</v>
       </c>
       <c r="U32" t="n">
-        <v>3.200000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="V32" t="n">
-        <v>28.67333333333334</v>
+        <v>25.00666666666667</v>
       </c>
       <c r="W32" t="n">
-        <v>20.79666666666667</v>
+        <v>47.68</v>
       </c>
       <c r="X32" t="n">
-        <v>44.6</v>
+        <v>20.75666666666666</v>
       </c>
       <c r="Y32" t="n">
-        <v>73.42999999999999</v>
+        <v>66.43333333333332</v>
       </c>
       <c r="Z32" t="n">
-        <v>2.263333333333333</v>
+        <v>3.05</v>
       </c>
       <c r="AA32" t="n">
-        <v>13.86333333333334</v>
+        <v>8.886666666666667</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -7391,7 +6229,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -7403,10 +6241,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -7415,63 +6253,63 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="R33" t="n">
-        <v>181.5583672154493</v>
+        <v>74.99633802373286</v>
       </c>
       <c r="S33" t="n">
-        <v>81.12</v>
+        <v>76.45666666666666</v>
       </c>
       <c r="T33" t="n">
-        <v>30.37</v>
+        <v>53.09</v>
       </c>
       <c r="U33" t="n">
-        <v>2.92</v>
+        <v>2.83</v>
       </c>
       <c r="V33" t="n">
-        <v>21.64666666666666</v>
+        <v>23.04333333333333</v>
       </c>
       <c r="W33" t="n">
-        <v>48.30333333333333</v>
+        <v>50.68333333333334</v>
       </c>
       <c r="X33" t="n">
-        <v>34.57</v>
+        <v>45.02666666666666</v>
       </c>
       <c r="Y33" t="n">
-        <v>86.71333333333332</v>
+        <v>53.84666666666666</v>
       </c>
       <c r="Z33" t="n">
-        <v>2.723333333333333</v>
+        <v>1.933333333333333</v>
       </c>
       <c r="AA33" t="n">
-        <v>15.46666666666667</v>
+        <v>7.123333333333332</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -7489,54 +6327,54 @@
         <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="R34" t="n">
-        <v>116.5657947901081</v>
+        <v>281.1137293427161</v>
       </c>
       <c r="S34" t="n">
-        <v>86.71333333333332</v>
+        <v>97.43666666666667</v>
       </c>
       <c r="T34" t="n">
-        <v>29.49666666666667</v>
+        <v>19.04666666666667</v>
       </c>
       <c r="U34" t="n">
-        <v>3.153333333333334</v>
+        <v>3.66</v>
       </c>
       <c r="V34" t="n">
-        <v>29.02666666666667</v>
+        <v>22.81</v>
       </c>
       <c r="W34" t="n">
-        <v>37.21666666666667</v>
+        <v>33.73333333333333</v>
       </c>
       <c r="X34" t="n">
-        <v>14.76666666666667</v>
+        <v>10.55666666666667</v>
       </c>
       <c r="Y34" t="n">
-        <v>62.70666666666667</v>
+        <v>43.59</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.513333333333333</v>
+        <v>2.493333333333334</v>
       </c>
       <c r="AA34" t="n">
-        <v>12.41666666666667</v>
+        <v>4.856666666666666</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -7551,13 +6389,13 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -7566,13 +6404,13 @@
         <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -7584,48 +6422,48 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="R35" t="n">
-        <v>116.1372732998309</v>
+        <v>96.86500164751794</v>
       </c>
       <c r="S35" t="n">
-        <v>86.71333333333332</v>
+        <v>77.62333333333333</v>
       </c>
       <c r="T35" t="n">
-        <v>50.68666666666667</v>
+        <v>34.88666666666666</v>
       </c>
       <c r="U35" t="n">
-        <v>2.716666666666667</v>
+        <v>2.576666666666667</v>
       </c>
       <c r="V35" t="n">
-        <v>22.42666666666667</v>
+        <v>24.12</v>
       </c>
       <c r="W35" t="n">
-        <v>44.40666666666667</v>
+        <v>71.19333333333333</v>
       </c>
       <c r="X35" t="n">
-        <v>16.18</v>
+        <v>25.14666666666666</v>
       </c>
       <c r="Y35" t="n">
-        <v>57.11000000000001</v>
+        <v>41.26</v>
       </c>
       <c r="Z35" t="n">
-        <v>2.35</v>
+        <v>1.43</v>
       </c>
       <c r="AA35" t="n">
-        <v>5.516666666666667</v>
+        <v>9.106666666666667</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -7649,13 +6487,13 @@
         <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -7664,703 +6502,39 @@
         <v>1</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="R36" t="n">
-        <v>224.6328129168009</v>
+        <v>87.13377554521578</v>
       </c>
       <c r="S36" t="n">
         <v>97.43666666666667</v>
       </c>
       <c r="T36" t="n">
-        <v>23.66666666666667</v>
+        <v>158.33</v>
       </c>
       <c r="U36" t="n">
-        <v>4.08</v>
+        <v>3.02</v>
       </c>
       <c r="V36" t="n">
-        <v>27.17666666666667</v>
+        <v>24</v>
       </c>
       <c r="W36" t="n">
-        <v>36.98333333333333</v>
+        <v>62.4</v>
       </c>
       <c r="X36" t="n">
-        <v>19.65</v>
+        <v>45.94</v>
       </c>
       <c r="Y36" t="n">
-        <v>74.59666666666668</v>
+        <v>56.41</v>
       </c>
       <c r="Z36" t="n">
-        <v>3.973333333333333</v>
+        <v>2.01</v>
       </c>
       <c r="AA36" t="n">
-        <v>11.49</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>197</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="R37" t="n">
-        <v>141.6970007871444</v>
-      </c>
-      <c r="S37" t="n">
-        <v>89.74333333333334</v>
-      </c>
-      <c r="T37" t="n">
-        <v>38.03666666666667</v>
-      </c>
-      <c r="U37" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="V37" t="n">
-        <v>20.45333333333333</v>
-      </c>
-      <c r="W37" t="n">
-        <v>53.76333333333334</v>
-      </c>
-      <c r="X37" t="n">
-        <v>35.15333333333334</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>72.96333333333334</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>2.586666666666666</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>9.093333333333334</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>199</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="R38" t="n">
-        <v>65.47383424855268</v>
-      </c>
-      <c r="S38" t="n">
-        <v>83.22000000000001</v>
-      </c>
-      <c r="T38" t="n">
-        <v>101.3766666666667</v>
-      </c>
-      <c r="U38" t="n">
-        <v>2.963333333333333</v>
-      </c>
-      <c r="V38" t="n">
-        <v>22.58333333333333</v>
-      </c>
-      <c r="W38" t="n">
-        <v>73.10000000000001</v>
-      </c>
-      <c r="X38" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>2.136666666666667</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>3.553333333333333</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>201</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="R39" t="n">
-        <v>119.0005766558921</v>
-      </c>
-      <c r="S39" t="n">
-        <v>91.84333333333332</v>
-      </c>
-      <c r="T39" t="n">
-        <v>51.38</v>
-      </c>
-      <c r="U39" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="V39" t="n">
-        <v>25.00666666666667</v>
-      </c>
-      <c r="W39" t="n">
-        <v>47.68</v>
-      </c>
-      <c r="X39" t="n">
-        <v>20.75666666666666</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>66.43333333333332</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>8.886666666666667</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>213</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="R40" t="n">
-        <v>2289.750914676508</v>
-      </c>
-      <c r="S40" t="n">
-        <v>28.20666666666667</v>
-      </c>
-      <c r="T40" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.126666666666667</v>
-      </c>
-      <c r="V40" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="W40" t="n">
-        <v>29.29333333333333</v>
-      </c>
-      <c r="X40" t="n">
-        <v>12.33333333333333</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>58.97333333333334</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>1.776666666666667</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>7.346666666666667</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>214</v>
-      </c>
-      <c r="B41" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="R41" t="n">
-        <v>93.81696281381187</v>
-      </c>
-      <c r="S41" t="n">
-        <v>76.45666666666666</v>
-      </c>
-      <c r="T41" t="n">
-        <v>53.09</v>
-      </c>
-      <c r="U41" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="V41" t="n">
-        <v>23.04333333333333</v>
-      </c>
-      <c r="W41" t="n">
-        <v>50.68333333333334</v>
-      </c>
-      <c r="X41" t="n">
-        <v>45.02666666666666</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>53.84666666666666</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>1.933333333333333</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>7.123333333333332</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>215</v>
-      </c>
-      <c r="B42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="R42" t="n">
-        <v>264.7768377420072</v>
-      </c>
-      <c r="S42" t="n">
-        <v>97.43666666666667</v>
-      </c>
-      <c r="T42" t="n">
-        <v>19.04666666666667</v>
-      </c>
-      <c r="U42" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="V42" t="n">
-        <v>22.81</v>
-      </c>
-      <c r="W42" t="n">
-        <v>33.73333333333333</v>
-      </c>
-      <c r="X42" t="n">
-        <v>10.55666666666667</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>2.493333333333334</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>4.856666666666666</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>216</v>
-      </c>
-      <c r="B43" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" t="n">
-        <v>1</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="R43" t="n">
-        <v>104.2399400658093</v>
-      </c>
-      <c r="S43" t="n">
-        <v>77.62333333333333</v>
-      </c>
-      <c r="T43" t="n">
-        <v>34.88666666666666</v>
-      </c>
-      <c r="U43" t="n">
-        <v>2.576666666666667</v>
-      </c>
-      <c r="V43" t="n">
-        <v>24.12</v>
-      </c>
-      <c r="W43" t="n">
-        <v>71.19333333333333</v>
-      </c>
-      <c r="X43" t="n">
-        <v>25.14666666666666</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>41.26</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>9.106666666666667</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>219</v>
-      </c>
-      <c r="B44" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="R44" t="n">
-        <v>40.06437771897972</v>
-      </c>
-      <c r="S44" t="n">
-        <v>97.43666666666667</v>
-      </c>
-      <c r="T44" t="n">
-        <v>158.33</v>
-      </c>
-      <c r="U44" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="V44" t="n">
-        <v>24</v>
-      </c>
-      <c r="W44" t="n">
-        <v>62.4</v>
-      </c>
-      <c r="X44" t="n">
-        <v>45.94</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>56.41</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AA44" t="n">
         <v>7.506666666666667</v>
       </c>
     </row>
